--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809728.55858592</v>
+        <v>1832275.182907583</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3011791.733846789</v>
+        <v>3011791.733846787</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10958084.23065963</v>
+        <v>10970696.51644342</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6335123.947699477</v>
+        <v>6333785.007969344</v>
       </c>
     </row>
     <row r="11">
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H17" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="I17" t="n">
-        <v>61.41019607786529</v>
+        <v>67.58039164023427</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>69.72093106024673</v>
+        <v>6.980598238513106</v>
       </c>
       <c r="G18" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>49.36325486264889</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.12445616387694</v>
+        <v>60.59979340172113</v>
       </c>
       <c r="S18" t="n">
-        <v>21.64341611158619</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.12866526292819</v>
+        <v>46.60400250077238</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>15.2815308149371</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>69.72093106024673</v>
+        <v>20.97638913946188</v>
       </c>
       <c r="U19" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>103.9816979943455</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>108.3036876490965</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>124.49241611997</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.81965876448402</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>103.0284448634865</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>95.30274963331327</v>
+        <v>95.77808687115746</v>
       </c>
       <c r="H21" t="n">
-        <v>70.1946767065991</v>
+        <v>31.00954511808729</v>
       </c>
       <c r="I21" t="n">
-        <v>47.35586532151771</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.59240386058995</v>
       </c>
       <c r="S21" t="n">
-        <v>129.6424035739404</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>184.3759517889216</v>
       </c>
       <c r="V21" t="n">
-        <v>190.7598196195279</v>
+        <v>191.2351568573721</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>210.1295528688664</v>
       </c>
       <c r="X21" t="n">
-        <v>163.7322176735801</v>
+        <v>164.2075549114243</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.9758305070749</v>
+        <v>168.9787988608062</v>
       </c>
       <c r="T22" t="n">
-        <v>173.9424616115818</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>184.144225096984</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>107.8283504112523</v>
-      </c>
-      <c r="S23" t="n">
-        <v>104.4570352321897</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.9677533578142</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>131.1430686962626</v>
       </c>
       <c r="D24" t="n">
-        <v>105.4042980347414</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>40.12947795360823</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>47.35586532151771</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.59240386058995</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>158.1239611649243</v>
+        <v>55.14305115026283</v>
       </c>
       <c r="U24" t="n">
-        <v>183.9006145510775</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>190.7598196195279</v>
+        <v>191.2351568573721</v>
       </c>
       <c r="W24" t="n">
-        <v>209.6542156310222</v>
+        <v>210.1295528688664</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>164.1172654852512</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.9502118285614</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>19.87120449616472</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V25" t="n">
-        <v>210.0968757939306</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>112.1087350801311</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,26 +2552,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>98.94278550597348</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>113.3426001374685</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.6068512146911</v>
+        <v>112.1196411872776</v>
       </c>
       <c r="C27" t="n">
-        <v>121.7821665531395</v>
+        <v>118.294956525726</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>93.03152310204899</v>
       </c>
       <c r="E27" t="n">
-        <v>106.7187480202247</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>90.65566993079412</v>
       </c>
       <c r="G27" t="n">
-        <v>86.41718472803443</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.7568386686616</v>
+        <v>117.2696286412481</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>145.7511862322318</v>
       </c>
       <c r="U27" t="n">
-        <v>175.0150496457986</v>
+        <v>171.5278396183851</v>
       </c>
       <c r="V27" t="n">
-        <v>8.262762720125753</v>
+        <v>86.6778070387075</v>
       </c>
       <c r="W27" t="n">
-        <v>200.7686507257434</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.41802357650042</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>94.2019305556226</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>113.577436895869</v>
       </c>
       <c r="H28" t="n">
-        <v>111.3008400722634</v>
+        <v>107.8136300448498</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.43284768149657</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.23571081651818</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>113.0846348915063</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>174.7833229538609</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>117.5081498348243</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>9.187668301458871</v>
       </c>
       <c r="S31" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>64.3322772147352</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>172.2801645589633</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.8594666780459</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.99444856414203</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>47.98433872981194</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.540217343334043</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.34793848492322</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>178.6604763355313</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>216.2941500401845</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>6.737704122182504</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
         <v>25.10807292671417</v>
@@ -3396,7 +3396,7 @@
         <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>87.92928445832514</v>
+        <v>61.83322042362008</v>
       </c>
       <c r="U36" t="n">
         <v>113.7059378444784</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>3.492141419787418</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>23.22784909972556</v>
       </c>
       <c r="Y37" t="n">
         <v>106.3492091155983</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>165.6953868174728</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>76.4112666048793</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>35.20962132814229</v>
+        <v>9.113557293437379</v>
       </c>
       <c r="E39" t="n">
         <v>45.40963621890448</v>
@@ -3639,7 +3639,7 @@
         <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>94.46907887822374</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
         <v>139.4595389244232</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>25.47776532576115</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>174.0835851199944</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.93769028817267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>144.7049940032078</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="X41" t="n">
-        <v>150.8751895655768</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319452</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164292</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796594</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872813</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>51.71003227671106</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653782</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982365</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>8.539913252158247</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>77.62192966726452</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
-        <v>112.4138050868047</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.07478252989635</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.57728493631424</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178594</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.80328711448358</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049667</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.6574179202995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="44">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="C17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="D17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="E17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="F17" t="n">
-        <v>208.4585413518488</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="G17" t="n">
-        <v>138.0333584627107</v>
+        <v>151.9022738911127</v>
       </c>
       <c r="H17" t="n">
-        <v>67.60817557357257</v>
+        <v>74.40111374258582</v>
       </c>
       <c r="I17" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J17" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K17" t="n">
-        <v>5.577674484819738</v>
+        <v>79.02793300345286</v>
       </c>
       <c r="L17" t="n">
-        <v>5.577674484819738</v>
+        <v>154.9868200650241</v>
       </c>
       <c r="M17" t="n">
-        <v>71.81255899205412</v>
+        <v>230.9457071265953</v>
       </c>
       <c r="N17" t="n">
-        <v>140.8362807416984</v>
+        <v>230.9457071265953</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8600024913426</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8837242409869</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8837242409869</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="S17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="T17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="U17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="V17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="W17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="X17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
       <c r="Y17" t="n">
-        <v>278.8837242409869</v>
+        <v>229.4034340396396</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="C18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="D18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="E18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="F18" t="n">
-        <v>125.8647309725931</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G18" t="n">
-        <v>55.43954808345498</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H18" t="n">
-        <v>55.43954808345498</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I18" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J18" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K18" t="n">
-        <v>5.577674484819738</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="L18" t="n">
-        <v>71.81255899205412</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="M18" t="n">
-        <v>71.81255899205412</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="N18" t="n">
-        <v>71.81255899205412</v>
+        <v>158.0558660069057</v>
       </c>
       <c r="O18" t="n">
-        <v>140.8362807416984</v>
+        <v>230.9457071265953</v>
       </c>
       <c r="P18" t="n">
-        <v>209.8600024913426</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.8837242409869</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R18" t="n">
-        <v>218.1519503380809</v>
+        <v>245.6926816611754</v>
       </c>
       <c r="S18" t="n">
-        <v>196.2899138617312</v>
+        <v>168.1915215126485</v>
       </c>
       <c r="T18" t="n">
-        <v>196.2899138617312</v>
+        <v>90.69036136412164</v>
       </c>
       <c r="U18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="V18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="W18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="X18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
       <c r="Y18" t="n">
-        <v>196.2899138617312</v>
+        <v>13.18920121559475</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.577674484819738</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="C19" t="n">
-        <v>5.577674484819738</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="D19" t="n">
-        <v>5.577674484819738</v>
+        <v>83.63925203229022</v>
       </c>
       <c r="E19" t="n">
-        <v>5.577674484819738</v>
+        <v>83.63925203229022</v>
       </c>
       <c r="F19" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G19" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H19" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I19" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J19" t="n">
-        <v>5.577674484819738</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K19" t="n">
-        <v>23.16392178607424</v>
+        <v>23.25375531955209</v>
       </c>
       <c r="L19" t="n">
-        <v>76.86395989792057</v>
+        <v>55.01684907105465</v>
       </c>
       <c r="M19" t="n">
-        <v>145.8876816475648</v>
+        <v>130.9757361326259</v>
       </c>
       <c r="N19" t="n">
-        <v>214.9114033972091</v>
+        <v>206.9346231941971</v>
       </c>
       <c r="O19" t="n">
-        <v>278.8837242409869</v>
+        <v>270.4363601725091</v>
       </c>
       <c r="P19" t="n">
-        <v>278.8837242409869</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q19" t="n">
-        <v>232.2891128642918</v>
+        <v>259.8298441873863</v>
       </c>
       <c r="R19" t="n">
-        <v>232.2891128642918</v>
+        <v>259.8298441873863</v>
       </c>
       <c r="S19" t="n">
-        <v>216.8532231522341</v>
+        <v>259.8298441873863</v>
       </c>
       <c r="T19" t="n">
-        <v>146.428040263096</v>
+        <v>238.641572329344</v>
       </c>
       <c r="U19" t="n">
-        <v>76.00285737395785</v>
+        <v>238.641572329344</v>
       </c>
       <c r="V19" t="n">
-        <v>5.577674484819738</v>
+        <v>238.641572329344</v>
       </c>
       <c r="W19" t="n">
-        <v>5.577674484819738</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="X19" t="n">
-        <v>5.577674484819738</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.577674484819738</v>
+        <v>161.1404121808171</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>854.6594912186196</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>854.6594912186196</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>854.6594912186196</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>854.6594912186196</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>611.2107145745194</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>611.2107145745194</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>611.2107145745194</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>611.2107145745194</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>349.2825524934457</v>
+        <v>147.349458250864</v>
       </c>
       <c r="C21" t="n">
-        <v>349.2825524934457</v>
+        <v>147.349458250864</v>
       </c>
       <c r="D21" t="n">
-        <v>349.2825524934457</v>
+        <v>147.349458250864</v>
       </c>
       <c r="E21" t="n">
-        <v>338.3536042464922</v>
+        <v>147.349458250864</v>
       </c>
       <c r="F21" t="n">
-        <v>234.2844680207482</v>
+        <v>147.349458250864</v>
       </c>
       <c r="G21" t="n">
-        <v>138.0190643507348</v>
+        <v>50.60391595676555</v>
       </c>
       <c r="H21" t="n">
-        <v>67.11535050568517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>904.872909186808</v>
       </c>
       <c r="S21" t="n">
-        <v>833.1052327086761</v>
+        <v>904.872909186808</v>
       </c>
       <c r="T21" t="n">
-        <v>833.1052327086761</v>
+        <v>904.872909186808</v>
       </c>
       <c r="U21" t="n">
-        <v>833.1052327086761</v>
+        <v>718.6345740464831</v>
       </c>
       <c r="V21" t="n">
-        <v>640.4185462243045</v>
+        <v>525.4677489380264</v>
       </c>
       <c r="W21" t="n">
-        <v>640.4185462243045</v>
+        <v>313.2156753331108</v>
       </c>
       <c r="X21" t="n">
-        <v>475.0324677661427</v>
+        <v>147.349458250864</v>
       </c>
       <c r="Y21" t="n">
-        <v>475.0324677661427</v>
+        <v>147.349458250864</v>
       </c>
     </row>
     <row r="22">
@@ -5911,43 +5911,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>38.85470605718709</v>
+        <v>38.38412219172135</v>
       </c>
       <c r="L22" t="n">
-        <v>107.7891909194985</v>
+        <v>106.848023188567</v>
       </c>
       <c r="M22" t="n">
-        <v>188.597588966319</v>
+        <v>187.1858373699218</v>
       </c>
       <c r="N22" t="n">
-        <v>273.9087994763537</v>
+        <v>272.0264640144907</v>
       </c>
       <c r="O22" t="n">
-        <v>339.8684359658513</v>
+        <v>337.5155166385226</v>
       </c>
       <c r="P22" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="Q22" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="R22" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="S22" t="n">
-        <v>194.9805992835277</v>
+        <v>205.285410884944</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>205.285410884944</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>205.285410884944</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>205.285410884944</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>205.285410884944</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>855.1396298427046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>214.1191646353313</v>
+        <v>151.7488892680537</v>
       </c>
       <c r="C24" t="n">
-        <v>214.1191646353313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>107.6501767214511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>107.6501767214511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>107.6501767214511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>107.6501767214511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>67.11535050568517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>904.872909186808</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>904.872909186808</v>
       </c>
       <c r="T24" t="n">
-        <v>804.3359826167733</v>
+        <v>849.1728575198758</v>
       </c>
       <c r="U24" t="n">
-        <v>618.5777861005334</v>
+        <v>849.1728575198758</v>
       </c>
       <c r="V24" t="n">
-        <v>425.8910996161618</v>
+        <v>656.0060324114191</v>
       </c>
       <c r="W24" t="n">
-        <v>214.1191646353313</v>
+        <v>443.7539588065035</v>
       </c>
       <c r="X24" t="n">
-        <v>214.1191646353313</v>
+        <v>443.7539588065035</v>
       </c>
       <c r="Y24" t="n">
-        <v>214.1191646353313</v>
+        <v>277.9789431648357</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6148,49 +6148,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>38.85470605718709</v>
+        <v>38.38412219172135</v>
       </c>
       <c r="L25" t="n">
-        <v>107.7891909194985</v>
+        <v>106.848023188567</v>
       </c>
       <c r="M25" t="n">
-        <v>188.597588966319</v>
+        <v>187.1858373699218</v>
       </c>
       <c r="N25" t="n">
-        <v>273.9087994763537</v>
+        <v>272.0264640144907</v>
       </c>
       <c r="O25" t="n">
-        <v>339.8684359658513</v>
+        <v>337.5155166385226</v>
       </c>
       <c r="P25" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="Q25" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="R25" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="S25" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="T25" t="n">
-        <v>378.7945694926943</v>
+        <v>375.9710662998998</v>
       </c>
       <c r="U25" t="n">
-        <v>358.7226457591946</v>
+        <v>132.5222896557997</v>
       </c>
       <c r="V25" t="n">
-        <v>146.5035793006788</v>
+        <v>132.5222896557997</v>
       </c>
       <c r="W25" t="n">
-        <v>146.5035793006788</v>
+        <v>132.5222896557997</v>
       </c>
       <c r="X25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.5035793006788</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
@@ -6215,7 +6215,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,25 +6248,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>864.1149479288448</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
         <v>749.627473042513</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>337.3802333136458</v>
+        <v>324.3136174117977</v>
       </c>
       <c r="C27" t="n">
-        <v>214.3679438660301</v>
+        <v>204.8237623353068</v>
       </c>
       <c r="D27" t="n">
-        <v>214.3679438660301</v>
+        <v>110.8525268786916</v>
       </c>
       <c r="E27" t="n">
-        <v>106.5712286940859</v>
+        <v>110.8525268786916</v>
       </c>
       <c r="F27" t="n">
-        <v>106.5712286940859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>842.0805507948164</v>
+        <v>845.6029851659412</v>
       </c>
       <c r="T27" t="n">
-        <v>842.0805507948164</v>
+        <v>698.3795647293433</v>
       </c>
       <c r="U27" t="n">
-        <v>665.2976723647168</v>
+        <v>525.1191206703685</v>
       </c>
       <c r="V27" t="n">
-        <v>656.9514473948929</v>
+        <v>437.5657802272296</v>
       </c>
       <c r="W27" t="n">
-        <v>454.1548305002025</v>
+        <v>437.5657802272296</v>
       </c>
       <c r="X27" t="n">
-        <v>454.1548305002025</v>
+        <v>437.5657802272296</v>
       </c>
       <c r="Y27" t="n">
-        <v>454.1548305002025</v>
+        <v>437.5657802272296</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.5676963968389</v>
+        <v>338.0619486620727</v>
       </c>
       <c r="C28" t="n">
-        <v>174.5676963968389</v>
+        <v>338.0619486620727</v>
       </c>
       <c r="D28" t="n">
-        <v>174.5676963968389</v>
+        <v>242.9084834543731</v>
       </c>
       <c r="E28" t="n">
-        <v>174.5676963968389</v>
+        <v>242.9084834543731</v>
       </c>
       <c r="F28" t="n">
-        <v>174.5676963968389</v>
+        <v>242.9084834543731</v>
       </c>
       <c r="G28" t="n">
-        <v>174.5676963968389</v>
+        <v>128.1837997211721</v>
       </c>
       <c r="H28" t="n">
-        <v>62.14260541475471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>62.14260541475471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>47.65141531341315</v>
+        <v>51.10375324055256</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3826094319506</v>
+        <v>132.2872852862294</v>
       </c>
       <c r="M28" t="n">
-        <v>214.9877167349972</v>
+        <v>225.3447305164154</v>
       </c>
       <c r="N28" t="n">
-        <v>309.0956365012579</v>
+        <v>322.9049882098156</v>
       </c>
       <c r="O28" t="n">
-        <v>383.8519822469816</v>
+        <v>401.1136718826788</v>
       </c>
       <c r="P28" t="n">
-        <v>431.5748250300506</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="Q28" t="n">
-        <v>395.9831979426585</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="R28" t="n">
-        <v>395.9831979426585</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="S28" t="n">
-        <v>395.9831979426585</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="T28" t="n">
-        <v>395.9831979426585</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="U28" t="n">
-        <v>395.9831979426585</v>
+        <v>452.2888525928872</v>
       </c>
       <c r="V28" t="n">
-        <v>395.9831979426585</v>
+        <v>338.0619486620727</v>
       </c>
       <c r="W28" t="n">
-        <v>395.9831979426585</v>
+        <v>338.0619486620727</v>
       </c>
       <c r="X28" t="n">
-        <v>219.4343868781525</v>
+        <v>338.0619486620727</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.4343868781525</v>
+        <v>338.0619486620727</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>624.8737972416698</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>624.8737972416698</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>624.8737972416698</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>381.4250205975697</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>137.9762439534696</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>868.3225738857699</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,16 +6573,16 @@
         <v>819.2468199112382</v>
       </c>
       <c r="U30" t="n">
-        <v>706.4200034432107</v>
+        <v>706.4200034432104</v>
       </c>
       <c r="V30" t="n">
-        <v>586.6646970070514</v>
+        <v>586.6646970070511</v>
       </c>
       <c r="W30" t="n">
-        <v>447.8241420744332</v>
+        <v>447.824142074433</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.7742888125396</v>
+        <v>229.1264165307492</v>
       </c>
       <c r="C31" t="n">
-        <v>50.7742888125396</v>
+        <v>175.5870353984258</v>
       </c>
       <c r="D31" t="n">
-        <v>50.7742888125396</v>
+        <v>140.8671977816735</v>
       </c>
       <c r="E31" t="n">
-        <v>50.7742888125396</v>
+        <v>140.8671977816735</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>60.90502305933459</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6643,28 +6643,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R31" t="n">
-        <v>792.4622108305023</v>
+        <v>846.8691697174547</v>
       </c>
       <c r="S31" t="n">
-        <v>681.5796206695481</v>
+        <v>735.9865795565006</v>
       </c>
       <c r="T31" t="n">
-        <v>681.5796206695481</v>
+        <v>621.1353112225067</v>
       </c>
       <c r="U31" t="n">
-        <v>507.7652817009994</v>
+        <v>621.1353112225067</v>
       </c>
       <c r="V31" t="n">
-        <v>442.7831835042972</v>
+        <v>621.1353112225067</v>
       </c>
       <c r="W31" t="n">
-        <v>268.7628152629201</v>
+        <v>447.1149429811297</v>
       </c>
       <c r="X31" t="n">
-        <v>156.1700661604862</v>
+        <v>334.5221938786958</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.7742888125396</v>
+        <v>229.1264165307492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.9932886969984</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>343.9932886969984</v>
+        <v>505.5988165654798</v>
       </c>
       <c r="D32" t="n">
-        <v>343.9932886969984</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>343.9932886969984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>343.9932886969984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>343.9932886969984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>116.4862499716049</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>832.3364282660507</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>722.3838870675621</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>583.8961909764421</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>368.230105428455</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>343.9932886969984</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>343.9932886969984</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.9932886969984</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.4406187574857</v>
+        <v>99.24331783255167</v>
       </c>
       <c r="C34" t="n">
-        <v>230.9012376251622</v>
+        <v>99.24331783255167</v>
       </c>
       <c r="D34" t="n">
-        <v>196.18140000841</v>
+        <v>99.24331783255167</v>
       </c>
       <c r="E34" t="n">
-        <v>163.6651082216003</v>
+        <v>99.24331783255167</v>
       </c>
       <c r="F34" t="n">
-        <v>163.6651082216003</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3740520793467</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>853.5837666448535</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="S34" t="n">
-        <v>742.7011764838994</v>
+        <v>681.5796206695481</v>
       </c>
       <c r="T34" t="n">
-        <v>742.7011764838994</v>
+        <v>665.066551492858</v>
       </c>
       <c r="U34" t="n">
-        <v>742.7011764838994</v>
+        <v>491.2522125243092</v>
       </c>
       <c r="V34" t="n">
-        <v>742.7011764838994</v>
+        <v>491.2522125243092</v>
       </c>
       <c r="W34" t="n">
-        <v>568.6808082425223</v>
+        <v>317.2318442829321</v>
       </c>
       <c r="X34" t="n">
-        <v>456.0880591400885</v>
+        <v>204.6390951804983</v>
       </c>
       <c r="Y34" t="n">
-        <v>350.6922817921419</v>
+        <v>99.24331783255167</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.7600825447425</v>
+        <v>199.7462707218605</v>
       </c>
       <c r="C35" t="n">
-        <v>237.7600825447425</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>237.7600825447425</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>237.7600825447425</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>926.0433436877541</v>
       </c>
       <c r="W35" t="n">
-        <v>724.6576358329427</v>
+        <v>686.6438240100606</v>
       </c>
       <c r="X35" t="n">
-        <v>724.6576358329427</v>
+        <v>686.6438240100606</v>
       </c>
       <c r="Y35" t="n">
-        <v>481.2088591888426</v>
+        <v>443.1950473659605</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.9660818453266</v>
+        <v>220.3257424864427</v>
       </c>
       <c r="C36" t="n">
-        <v>132.8821881566203</v>
+        <v>159.2418487977363</v>
       </c>
       <c r="D36" t="n">
-        <v>97.31691408778966</v>
+        <v>123.6765747289057</v>
       </c>
       <c r="E36" t="n">
-        <v>51.44859467475482</v>
+        <v>77.80825531587089</v>
       </c>
       <c r="F36" t="n">
         <v>44.64283293517654</v>
@@ -7026,10 +7026,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>904.0089465537258</v>
       </c>
       <c r="T36" t="n">
-        <v>815.1914875049125</v>
+        <v>841.5511481460287</v>
       </c>
       <c r="U36" t="n">
-        <v>700.3370048337223</v>
+        <v>726.6966654748385</v>
       </c>
       <c r="V36" t="n">
-        <v>578.5540321944003</v>
+        <v>604.9136928355165</v>
       </c>
       <c r="W36" t="n">
-        <v>437.6858110586193</v>
+        <v>464.0454716997355</v>
       </c>
       <c r="X36" t="n">
-        <v>343.2034464455072</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y36" t="n">
-        <v>248.812283272974</v>
+        <v>275.17194391409</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.37560602124181</v>
+        <v>237.8128767265509</v>
       </c>
       <c r="C37" t="n">
-        <v>22.80855868575557</v>
+        <v>237.8128767265509</v>
       </c>
       <c r="D37" t="n">
-        <v>22.80855868575557</v>
+        <v>237.8128767265509</v>
       </c>
       <c r="E37" t="n">
-        <v>22.80855868575557</v>
+        <v>203.2689187365784</v>
       </c>
       <c r="F37" t="n">
-        <v>22.80855868575557</v>
+        <v>169.7481068310887</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.4293844856723</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>62.9326892624974</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7135,10 +7135,10 @@
         <v>368.6987941157669</v>
       </c>
       <c r="X37" t="n">
-        <v>254.0783788101702</v>
+        <v>345.2363202776603</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.6549352590608</v>
+        <v>237.8128767265509</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.145790399554</v>
+        <v>430.0989973477197</v>
       </c>
       <c r="C38" t="n">
-        <v>439.145790399554</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>439.145790399554</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>439.145790399554</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>195.6970137554539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>195.6970137554539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>118.5139161747677</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>926.0433436877541</v>
       </c>
       <c r="T38" t="n">
-        <v>926.0433436877541</v>
+        <v>814.0631362861027</v>
       </c>
       <c r="U38" t="n">
-        <v>926.0433436877541</v>
+        <v>673.5477739918198</v>
       </c>
       <c r="V38" t="n">
-        <v>926.0433436877541</v>
+        <v>673.5477739918198</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0433436877541</v>
+        <v>673.5477739918198</v>
       </c>
       <c r="X38" t="n">
-        <v>926.0433436877541</v>
+        <v>673.5477739918198</v>
       </c>
       <c r="Y38" t="n">
-        <v>682.594567043654</v>
+        <v>430.0989973477197</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220.3257424864427</v>
+        <v>193.9660818453266</v>
       </c>
       <c r="C39" t="n">
-        <v>159.2418487977363</v>
+        <v>132.8821881566203</v>
       </c>
       <c r="D39" t="n">
         <v>123.6765747289057</v>
@@ -7257,7 +7257,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
         <v>234.810827406191</v>
@@ -7287,16 +7287,16 @@
         <v>700.3370048337223</v>
       </c>
       <c r="V39" t="n">
-        <v>604.9136928355165</v>
+        <v>578.5540321944003</v>
       </c>
       <c r="W39" t="n">
-        <v>464.0454716997355</v>
+        <v>437.6858110586193</v>
       </c>
       <c r="X39" t="n">
-        <v>369.5631070866233</v>
+        <v>343.2034464455072</v>
       </c>
       <c r="Y39" t="n">
-        <v>275.17194391409</v>
+        <v>248.812283272974</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>213.0512979940438</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>213.0512979940438</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>213.0512979940438</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5073400040714</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>144.9865280985817</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>88.66780575316523</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>62.9326892624974</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>774.5360194615805</v>
       </c>
       <c r="S40" t="n">
-        <v>661.6257630974635</v>
+        <v>774.5360194615805</v>
       </c>
       <c r="T40" t="n">
-        <v>544.7468285603069</v>
+        <v>774.5360194615805</v>
       </c>
       <c r="U40" t="n">
-        <v>368.9048233885953</v>
+        <v>598.694014289869</v>
       </c>
       <c r="V40" t="n">
-        <v>227.5894707751291</v>
+        <v>457.3786616764028</v>
       </c>
       <c r="W40" t="n">
-        <v>51.54143633058916</v>
+        <v>281.3306272318628</v>
       </c>
       <c r="X40" t="n">
-        <v>51.54143633058916</v>
+        <v>281.3306272318628</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>281.3306272318628</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>186.7270623803549</v>
+        <v>159.3097118357502</v>
       </c>
       <c r="C41" t="n">
-        <v>13.70346862539299</v>
+        <v>159.3097118357502</v>
       </c>
       <c r="D41" t="n">
-        <v>13.70346862539299</v>
+        <v>159.3097118357502</v>
       </c>
       <c r="E41" t="n">
-        <v>13.70346862539299</v>
+        <v>159.3097118357502</v>
       </c>
       <c r="F41" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G41" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K41" t="n">
-        <v>116.7184745363153</v>
+        <v>116.1580571373718</v>
       </c>
       <c r="L41" t="n">
-        <v>286.2988987755535</v>
+        <v>278.803316064683</v>
       </c>
       <c r="M41" t="n">
-        <v>455.8793230147917</v>
+        <v>441.4485749919943</v>
       </c>
       <c r="N41" t="n">
-        <v>625.4597472540299</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="O41" t="n">
-        <v>685.1734312696493</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="U41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="V41" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="W41" t="n">
-        <v>685.1734312696493</v>
+        <v>491.2049448268966</v>
       </c>
       <c r="X41" t="n">
-        <v>532.7742498902788</v>
+        <v>325.2573283313234</v>
       </c>
       <c r="Y41" t="n">
-        <v>359.7506561353169</v>
+        <v>159.3097118357502</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>329.1496687278268</v>
+        <v>69.37798005672092</v>
       </c>
       <c r="C42" t="n">
-        <v>248.9988415847532</v>
+        <v>69.37798005672092</v>
       </c>
       <c r="D42" t="n">
-        <v>194.3666340615553</v>
+        <v>69.37798005672092</v>
       </c>
       <c r="E42" t="n">
-        <v>129.4313811941531</v>
+        <v>69.37798005672092</v>
       </c>
       <c r="F42" t="n">
-        <v>77.19902535909144</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G42" t="n">
-        <v>32.7704020797603</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K42" t="n">
-        <v>139.0610286832304</v>
+        <v>138.5006112842868</v>
       </c>
       <c r="L42" t="n">
-        <v>308.6414529224686</v>
+        <v>301.1458702115981</v>
       </c>
       <c r="M42" t="n">
-        <v>478.2218771617068</v>
+        <v>463.7911291389094</v>
       </c>
       <c r="N42" t="n">
-        <v>647.802301400945</v>
+        <v>626.4363880662206</v>
       </c>
       <c r="O42" t="n">
-        <v>685.1734312696493</v>
+        <v>626.4363880662206</v>
       </c>
       <c r="P42" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S42" t="n">
-        <v>676.5472562674693</v>
+        <v>574.0348459159821</v>
       </c>
       <c r="T42" t="n">
-        <v>676.5472562674693</v>
+        <v>495.6288563530887</v>
       </c>
       <c r="U42" t="n">
-        <v>676.5472562674693</v>
+        <v>495.6288563530887</v>
       </c>
       <c r="V42" t="n">
-        <v>676.5472562674693</v>
+        <v>350.7763772641895</v>
       </c>
       <c r="W42" t="n">
-        <v>516.612101677321</v>
+        <v>186.8386496788313</v>
       </c>
       <c r="X42" t="n">
-        <v>403.0628036098415</v>
+        <v>186.8386496788313</v>
       </c>
       <c r="Y42" t="n">
-        <v>403.0628036098415</v>
+        <v>69.37798005672092</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.4447481284198</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="C43" t="n">
-        <v>159.4447481284198</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="D43" t="n">
-        <v>159.4447481284198</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="E43" t="n">
-        <v>105.83385668408</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="F43" t="n">
-        <v>89.08912442517678</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="G43" t="n">
-        <v>13.70346862539299</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="H43" t="n">
-        <v>13.70346862539299</v>
+        <v>56.37869477643281</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539299</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327508</v>
+        <v>79.59892084172634</v>
       </c>
       <c r="L43" t="n">
-        <v>203.8219733564941</v>
+        <v>195.4157123723402</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642224</v>
+        <v>323.1064170874633</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351648</v>
+        <v>455.2999342658006</v>
       </c>
       <c r="O43" t="n">
-        <v>588.3169037855699</v>
+        <v>568.1418774236008</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733206</v>
+        <v>653.9503176187462</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696493</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R43" t="n">
-        <v>600.39139969339</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S43" t="n">
-        <v>468.4142098749057</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T43" t="n">
-        <v>332.4683418833818</v>
+        <v>517.204120335736</v>
       </c>
       <c r="U43" t="n">
-        <v>159.4447481284198</v>
+        <v>351.2565038401628</v>
       </c>
       <c r="V43" t="n">
-        <v>159.4447481284198</v>
+        <v>186.8716447771194</v>
       </c>
       <c r="W43" t="n">
-        <v>159.4447481284198</v>
+        <v>186.8716447771194</v>
       </c>
       <c r="X43" t="n">
-        <v>159.4447481284198</v>
+        <v>186.8716447771194</v>
       </c>
       <c r="Y43" t="n">
-        <v>159.4447481284198</v>
+        <v>56.37869477643281</v>
       </c>
     </row>
     <row r="44">
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>293.7159531860811</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>312.4925635170289</v>
       </c>
       <c r="M17" t="n">
-        <v>297.2501569719539</v>
+        <v>307.0723817743144</v>
       </c>
       <c r="N17" t="n">
-        <v>299.1339946568377</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>299.8191424819335</v>
+        <v>306.8243599687283</v>
       </c>
       <c r="P17" t="n">
-        <v>300.9539268155163</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>214.5675875214006</v>
       </c>
       <c r="L18" t="n">
-        <v>205.4583035245554</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>208.0678606303749</v>
       </c>
       <c r="O18" t="n">
-        <v>212.3171755046912</v>
+        <v>216.222346585545</v>
       </c>
       <c r="P18" t="n">
-        <v>203.695338474577</v>
+        <v>210.7005559613719</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.7027051462682</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,7 +9960,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>407.0597727873995</v>
+        <v>400.0545553006046</v>
       </c>
       <c r="M41" t="n">
-        <v>401.6395910446851</v>
+        <v>394.6343735578902</v>
       </c>
       <c r="N41" t="n">
-        <v>400.7064214140032</v>
+        <v>356.7301656556056</v>
       </c>
       <c r="O41" t="n">
-        <v>290.4150639627164</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>309.8477375972865</v>
+        <v>302.8425201104916</v>
       </c>
       <c r="M42" t="n">
-        <v>313.4273917394306</v>
+        <v>306.4221742526357</v>
       </c>
       <c r="N42" t="n">
-        <v>302.6350699007456</v>
+        <v>295.6298524139507</v>
       </c>
       <c r="O42" t="n">
-        <v>180.3448604734387</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>165.0008450469051</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342.7004636747144</v>
+        <v>343.1758009125585</v>
       </c>
       <c r="C14" t="n">
-        <v>325.2395137822414</v>
+        <v>325.7148510200856</v>
       </c>
       <c r="D14" t="n">
-        <v>314.6496636319168</v>
+        <v>315.1250008697609</v>
       </c>
       <c r="E14" t="n">
-        <v>341.8969920834956</v>
+        <v>342.3723293213397</v>
       </c>
       <c r="F14" t="n">
-        <v>366.8426677529453</v>
+        <v>367.3180049907894</v>
       </c>
       <c r="G14" t="n">
-        <v>375.2693595263689</v>
+        <v>375.744696764213</v>
       </c>
       <c r="H14" t="n">
-        <v>299.441424127001</v>
+        <v>299.9167613648451</v>
       </c>
       <c r="I14" t="n">
-        <v>170.4425115816397</v>
+        <v>170.9178488194839</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.8357399523835</v>
+        <v>110.3110771902277</v>
       </c>
       <c r="S14" t="n">
-        <v>168.9866915974791</v>
+        <v>169.4620288353233</v>
       </c>
       <c r="T14" t="n">
-        <v>183.0624715753652</v>
+        <v>183.5378088132094</v>
       </c>
       <c r="U14" t="n">
-        <v>211.3122749190703</v>
+        <v>211.7876121569145</v>
       </c>
       <c r="V14" t="n">
-        <v>287.7188804813687</v>
+        <v>288.1942177192129</v>
       </c>
       <c r="W14" t="n">
-        <v>309.2075907286468</v>
+        <v>309.682927966491</v>
       </c>
       <c r="X14" t="n">
-        <v>329.6977226897029</v>
+        <v>330.173059927547</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.2045606672874</v>
+        <v>346.6798979051316</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.4998056611011</v>
+        <v>126.9751428989453</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6751209995496</v>
+        <v>133.1504582373937</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4116875758726</v>
+        <v>107.8870248137167</v>
       </c>
       <c r="E15" t="n">
-        <v>117.6117024666348</v>
+        <v>118.0870397044789</v>
       </c>
       <c r="F15" t="n">
-        <v>105.0358344046177</v>
+        <v>105.5111716424619</v>
       </c>
       <c r="G15" t="n">
-        <v>97.31013917444444</v>
+        <v>97.78547641228863</v>
       </c>
       <c r="H15" t="n">
-        <v>72.20206624773027</v>
+        <v>72.67740348557446</v>
       </c>
       <c r="I15" t="n">
-        <v>49.36325486264889</v>
+        <v>49.83859210049307</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.12445616387694</v>
+        <v>60.59979340172113</v>
       </c>
       <c r="S15" t="n">
-        <v>131.6497931150716</v>
+        <v>132.1251303529158</v>
       </c>
       <c r="T15" t="n">
-        <v>160.1313507060554</v>
+        <v>160.6066879438996</v>
       </c>
       <c r="U15" t="n">
-        <v>185.9080040922086</v>
+        <v>186.3833413300528</v>
       </c>
       <c r="V15" t="n">
-        <v>192.7672091606591</v>
+        <v>193.2425463985033</v>
       </c>
       <c r="W15" t="n">
-        <v>211.6616051721534</v>
+        <v>212.1369424099976</v>
       </c>
       <c r="X15" t="n">
-        <v>165.7396072147113</v>
+        <v>166.2149444525555</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.6493177885382</v>
+        <v>166.1246550263824</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.7986021931711</v>
+        <v>140.2739394310153</v>
       </c>
       <c r="C16" t="n">
-        <v>127.2134431098616</v>
+        <v>127.6887803477058</v>
       </c>
       <c r="D16" t="n">
-        <v>108.5820950294462</v>
+        <v>109.0574322672904</v>
       </c>
       <c r="E16" t="n">
-        <v>106.400584657803</v>
+        <v>106.8759218956472</v>
       </c>
       <c r="F16" t="n">
-        <v>105.3876700341651</v>
+        <v>105.8630072720092</v>
       </c>
       <c r="G16" t="n">
-        <v>127.9576013696926</v>
+        <v>128.4329386075368</v>
       </c>
       <c r="H16" t="n">
-        <v>122.1937945186734</v>
+        <v>122.6691317565176</v>
       </c>
       <c r="I16" t="n">
-        <v>115.4170969384921</v>
+        <v>115.8924341763363</v>
       </c>
       <c r="J16" t="n">
-        <v>53.32580212790658</v>
+        <v>53.80113936575077</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.12866526292819</v>
+        <v>46.60400250077238</v>
       </c>
       <c r="R16" t="n">
-        <v>137.2600133884033</v>
+        <v>137.7353506262475</v>
       </c>
       <c r="S16" t="n">
-        <v>183.9832200482061</v>
+        <v>184.4585572860503</v>
       </c>
       <c r="T16" t="n">
-        <v>187.9122114395153</v>
+        <v>188.3875486773595</v>
       </c>
       <c r="U16" t="n">
-        <v>246.2856513677247</v>
+        <v>246.7609886055689</v>
       </c>
       <c r="V16" t="n">
-        <v>212.1042653350618</v>
+        <v>212.579602572906</v>
       </c>
       <c r="W16" t="n">
-        <v>246.4896203478248</v>
+        <v>246.964957585669</v>
       </c>
       <c r="X16" t="n">
-        <v>185.676277400271</v>
+        <v>186.1516146381151</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.5512753633286</v>
+        <v>179.0266126011728</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.7004636747144</v>
+        <v>343.1758009125585</v>
       </c>
       <c r="C17" t="n">
-        <v>325.2395137822414</v>
+        <v>325.7148510200856</v>
       </c>
       <c r="D17" t="n">
-        <v>314.6496636319168</v>
+        <v>315.1250008697609</v>
       </c>
       <c r="E17" t="n">
-        <v>341.8969920834956</v>
+        <v>342.3723293213397</v>
       </c>
       <c r="F17" t="n">
-        <v>297.1217366926985</v>
+        <v>367.3180049907894</v>
       </c>
       <c r="G17" t="n">
-        <v>305.5484284661221</v>
+        <v>299.0185482171714</v>
       </c>
       <c r="H17" t="n">
-        <v>229.7204930667542</v>
+        <v>223.1906128178035</v>
       </c>
       <c r="I17" t="n">
-        <v>109.0323155037744</v>
+        <v>103.3374571792496</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.8357399523835</v>
+        <v>33.58492864318606</v>
       </c>
       <c r="S17" t="n">
-        <v>168.9866915974791</v>
+        <v>169.4620288353233</v>
       </c>
       <c r="T17" t="n">
-        <v>183.0624715753652</v>
+        <v>183.5378088132094</v>
       </c>
       <c r="U17" t="n">
-        <v>211.3122749190703</v>
+        <v>211.7876121569145</v>
       </c>
       <c r="V17" t="n">
-        <v>287.7188804813687</v>
+        <v>288.1942177192129</v>
       </c>
       <c r="W17" t="n">
-        <v>309.2075907286468</v>
+        <v>309.682927966491</v>
       </c>
       <c r="X17" t="n">
-        <v>329.6977226897029</v>
+        <v>330.173059927547</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.2045606672874</v>
+        <v>346.6798979051316</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>126.4998056611011</v>
+        <v>126.9751428989453</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6751209995496</v>
+        <v>133.1504582373937</v>
       </c>
       <c r="D18" t="n">
-        <v>107.4116875758726</v>
+        <v>107.8870248137167</v>
       </c>
       <c r="E18" t="n">
-        <v>117.6117024666348</v>
+        <v>118.0870397044789</v>
       </c>
       <c r="F18" t="n">
-        <v>35.31490334437096</v>
+        <v>98.53057340394876</v>
       </c>
       <c r="G18" t="n">
-        <v>27.58920811419772</v>
+        <v>97.78547641228863</v>
       </c>
       <c r="H18" t="n">
-        <v>72.20206624773027</v>
+        <v>72.67740348557446</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.83859210049307</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>110.0063770034855</v>
+        <v>55.3989818058742</v>
       </c>
       <c r="T18" t="n">
-        <v>160.1313507060554</v>
+        <v>83.88053939685798</v>
       </c>
       <c r="U18" t="n">
-        <v>185.9080040922086</v>
+        <v>109.6571927830112</v>
       </c>
       <c r="V18" t="n">
-        <v>192.7672091606591</v>
+        <v>193.2425463985033</v>
       </c>
       <c r="W18" t="n">
-        <v>211.6616051721534</v>
+        <v>212.1369424099976</v>
       </c>
       <c r="X18" t="n">
-        <v>165.7396072147113</v>
+        <v>166.2149444525555</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.6493177885382</v>
+        <v>166.1246550263824</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.7986021931711</v>
+        <v>140.2739394310153</v>
       </c>
       <c r="C19" t="n">
-        <v>127.2134431098616</v>
+        <v>127.6887803477058</v>
       </c>
       <c r="D19" t="n">
-        <v>108.5820950294462</v>
+        <v>32.33128372024873</v>
       </c>
       <c r="E19" t="n">
-        <v>106.400584657803</v>
+        <v>106.8759218956472</v>
       </c>
       <c r="F19" t="n">
-        <v>105.3876700341651</v>
+        <v>29.13685872496762</v>
       </c>
       <c r="G19" t="n">
-        <v>127.9576013696926</v>
+        <v>128.4329386075368</v>
       </c>
       <c r="H19" t="n">
-        <v>122.1937945186734</v>
+        <v>122.6691317565176</v>
       </c>
       <c r="I19" t="n">
-        <v>115.4170969384921</v>
+        <v>115.8924341763363</v>
       </c>
       <c r="J19" t="n">
-        <v>53.32580212790658</v>
+        <v>53.80113936575077</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>137.2600133884033</v>
+        <v>137.7353506262475</v>
       </c>
       <c r="S19" t="n">
-        <v>168.701689233269</v>
+        <v>184.4585572860503</v>
       </c>
       <c r="T19" t="n">
-        <v>118.1912803792686</v>
+        <v>167.4111595378976</v>
       </c>
       <c r="U19" t="n">
-        <v>176.564720307478</v>
+        <v>246.7609886055689</v>
       </c>
       <c r="V19" t="n">
-        <v>142.3833342748151</v>
+        <v>212.579602572906</v>
       </c>
       <c r="W19" t="n">
-        <v>246.4896203478248</v>
+        <v>170.2388090386274</v>
       </c>
       <c r="X19" t="n">
-        <v>185.676277400271</v>
+        <v>186.1516146381151</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.5512753633286</v>
+        <v>179.0266126011728</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.67878525592414</v>
+        <v>237.1867133770819</v>
       </c>
       <c r="C20" t="n">
-        <v>323.2321242411102</v>
+        <v>323.7074614789544</v>
       </c>
       <c r="D20" t="n">
-        <v>312.6422740907856</v>
+        <v>313.1176113286298</v>
       </c>
       <c r="E20" t="n">
-        <v>339.8896025423644</v>
+        <v>99.35065090254955</v>
       </c>
       <c r="F20" t="n">
-        <v>364.8352782118141</v>
+        <v>124.2963265719992</v>
       </c>
       <c r="G20" t="n">
-        <v>373.2619699852377</v>
+        <v>373.7373072230819</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4340345858698</v>
+        <v>297.909371823714</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4351220405085</v>
+        <v>168.9104592783527</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>107.8283504112523</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>166.979302056348</v>
+        <v>167.4546392941922</v>
       </c>
       <c r="T20" t="n">
-        <v>181.055082034234</v>
+        <v>181.5304192720782</v>
       </c>
       <c r="U20" t="n">
-        <v>209.3048853779391</v>
+        <v>209.7802226157833</v>
       </c>
       <c r="V20" t="n">
-        <v>44.69720206257847</v>
+        <v>45.17253930042267</v>
       </c>
       <c r="W20" t="n">
-        <v>94.91481554407352</v>
+        <v>307.6755384253598</v>
       </c>
       <c r="X20" t="n">
-        <v>327.6903331485717</v>
+        <v>328.1656703864159</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.1828822484972</v>
+        <v>344.6725083640004</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>124.9677533578142</v>
       </c>
       <c r="C21" t="n">
-        <v>130.6677314584184</v>
+        <v>131.1430686962626</v>
       </c>
       <c r="D21" t="n">
-        <v>105.4042980347414</v>
+        <v>105.8796352725856</v>
       </c>
       <c r="E21" t="n">
-        <v>104.7846541610196</v>
+        <v>116.0796501633478</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>103.5037821013307</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>39.660468826356</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>47.8312025593619</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.11706662274577</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>130.1177408117846</v>
       </c>
       <c r="T21" t="n">
-        <v>158.1239611649243</v>
+        <v>158.5992984027684</v>
       </c>
       <c r="U21" t="n">
-        <v>183.9006145510775</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>209.6542156310222</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.641928247407</v>
+        <v>164.1172654852512</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.7912126520399</v>
+        <v>138.2665498898841</v>
       </c>
       <c r="C22" t="n">
-        <v>125.2060535687305</v>
+        <v>125.6813908065747</v>
       </c>
       <c r="D22" t="n">
-        <v>106.574705488315</v>
+        <v>107.0500427261592</v>
       </c>
       <c r="E22" t="n">
-        <v>104.3931951166718</v>
+        <v>104.868532354516</v>
       </c>
       <c r="F22" t="n">
-        <v>103.3802804930339</v>
+        <v>103.8556177308781</v>
       </c>
       <c r="G22" t="n">
-        <v>125.9502118285614</v>
+        <v>126.4255490664056</v>
       </c>
       <c r="H22" t="n">
-        <v>120.1864049775422</v>
+        <v>120.6617422153864</v>
       </c>
       <c r="I22" t="n">
-        <v>113.4097073973609</v>
+        <v>113.8850446352051</v>
       </c>
       <c r="J22" t="n">
-        <v>51.31841258677541</v>
+        <v>51.7937498246196</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.12127572179702</v>
+        <v>44.59661295964121</v>
       </c>
       <c r="R22" t="n">
-        <v>135.2526238472721</v>
+        <v>135.7279610851163</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>13.47236888411285</v>
       </c>
       <c r="T22" t="n">
-        <v>11.96236028680227</v>
+        <v>186.3801591362283</v>
       </c>
       <c r="U22" t="n">
-        <v>244.2782618265935</v>
+        <v>244.7535990644377</v>
       </c>
       <c r="V22" t="n">
-        <v>210.0968757939306</v>
+        <v>210.5722130317748</v>
       </c>
       <c r="W22" t="n">
-        <v>244.4822308066936</v>
+        <v>244.9575680445378</v>
       </c>
       <c r="X22" t="n">
-        <v>183.6688878591398</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>176.5438858221974</v>
+        <v>177.0192230600416</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.67878525592414</v>
+        <v>341.1684113714274</v>
       </c>
       <c r="C23" t="n">
-        <v>82.21783536345112</v>
+        <v>323.7074614789544</v>
       </c>
       <c r="D23" t="n">
-        <v>312.6422740907856</v>
+        <v>313.1176113286298</v>
       </c>
       <c r="E23" t="n">
-        <v>339.8896025423644</v>
+        <v>340.3649397802086</v>
       </c>
       <c r="F23" t="n">
-        <v>364.8352782118141</v>
+        <v>365.3106154496583</v>
       </c>
       <c r="G23" t="n">
-        <v>373.2619699852377</v>
+        <v>161.4519215796398</v>
       </c>
       <c r="H23" t="n">
-        <v>56.41974570821071</v>
+        <v>297.909371823714</v>
       </c>
       <c r="I23" t="n">
-        <v>168.4351220405085</v>
+        <v>168.9104592783527</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>108.3036876490965</v>
       </c>
       <c r="S23" t="n">
-        <v>62.52226682415828</v>
+        <v>167.4546392941922</v>
       </c>
       <c r="T23" t="n">
-        <v>181.055082034234</v>
+        <v>181.5304192720782</v>
       </c>
       <c r="U23" t="n">
-        <v>209.3048853779391</v>
+        <v>209.7802226157833</v>
       </c>
       <c r="V23" t="n">
-        <v>285.7114909402375</v>
+        <v>286.1868281780817</v>
       </c>
       <c r="W23" t="n">
-        <v>307.2002011875156</v>
+        <v>66.66124954770078</v>
       </c>
       <c r="X23" t="n">
-        <v>327.6903331485717</v>
+        <v>87.1513815087568</v>
       </c>
       <c r="Y23" t="n">
-        <v>344.1971711261562</v>
+        <v>103.6582194863414</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.49241611997</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>130.6677314584184</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.8796352725856</v>
       </c>
       <c r="E24" t="n">
-        <v>115.6043129255036</v>
+        <v>116.0796501633478</v>
       </c>
       <c r="F24" t="n">
-        <v>103.0284448634865</v>
+        <v>103.5037821013307</v>
       </c>
       <c r="G24" t="n">
-        <v>95.30274963331327</v>
+        <v>95.77808687115746</v>
       </c>
       <c r="H24" t="n">
-        <v>30.06519875299087</v>
+        <v>70.67001394444328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>47.8312025593619</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.11706662274577</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.6424035739404</v>
+        <v>130.1177408117846</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>103.4562472525056</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>184.3759517889216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>163.7322176735801</v>
+        <v>164.2075549114243</v>
       </c>
       <c r="Y24" t="n">
-        <v>163.641928247407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.7912126520399</v>
+        <v>138.2665498898841</v>
       </c>
       <c r="C25" t="n">
-        <v>125.2060535687305</v>
+        <v>125.6813908065747</v>
       </c>
       <c r="D25" t="n">
-        <v>106.574705488315</v>
+        <v>107.0500427261592</v>
       </c>
       <c r="E25" t="n">
-        <v>104.3931951166718</v>
+        <v>104.868532354516</v>
       </c>
       <c r="F25" t="n">
-        <v>103.3802804930339</v>
+        <v>103.8556177308781</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>126.4255490664056</v>
       </c>
       <c r="H25" t="n">
-        <v>120.1864049775422</v>
+        <v>120.6617422153864</v>
       </c>
       <c r="I25" t="n">
-        <v>113.4097073973609</v>
+        <v>113.8850446352051</v>
       </c>
       <c r="J25" t="n">
-        <v>51.31841258677541</v>
+        <v>51.7937498246196</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.12127572179702</v>
+        <v>44.59661295964121</v>
       </c>
       <c r="R25" t="n">
-        <v>135.2526238472721</v>
+        <v>135.7279610851163</v>
       </c>
       <c r="S25" t="n">
-        <v>181.9758305070749</v>
+        <v>182.4511677449191</v>
       </c>
       <c r="T25" t="n">
-        <v>185.9048218983841</v>
+        <v>186.3801591362283</v>
       </c>
       <c r="U25" t="n">
-        <v>224.4070573304288</v>
+        <v>3.739310186778653</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>210.5722130317748</v>
       </c>
       <c r="W25" t="n">
-        <v>244.4822308066936</v>
+        <v>244.9575680445378</v>
       </c>
       <c r="X25" t="n">
-        <v>183.6688878591398</v>
+        <v>72.03549001685283</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.5438858221974</v>
+        <v>177.0192230600416</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>331.8075092283044</v>
+        <v>87.30601032323176</v>
       </c>
       <c r="C26" t="n">
-        <v>314.3465593358313</v>
+        <v>69.84506043075874</v>
       </c>
       <c r="D26" t="n">
-        <v>62.74242030784768</v>
+        <v>300.2694991580932</v>
       </c>
       <c r="E26" t="n">
-        <v>89.9897487594265</v>
+        <v>327.516827609672</v>
       </c>
       <c r="F26" t="n">
-        <v>355.9497133065352</v>
+        <v>352.4625032791217</v>
       </c>
       <c r="G26" t="n">
-        <v>123.3621162022998</v>
+        <v>360.8891950525453</v>
       </c>
       <c r="H26" t="n">
-        <v>288.5484696805909</v>
+        <v>44.04697077551833</v>
       </c>
       <c r="I26" t="n">
-        <v>159.5495571352297</v>
+        <v>156.0623471078162</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>95.45557547855992</v>
       </c>
       <c r="S26" t="n">
-        <v>44.75113701360065</v>
+        <v>154.6065271236556</v>
       </c>
       <c r="T26" t="n">
-        <v>172.1695171289551</v>
+        <v>168.6823071015416</v>
       </c>
       <c r="U26" t="n">
-        <v>200.4193204726603</v>
+        <v>196.9321104452467</v>
       </c>
       <c r="V26" t="n">
-        <v>276.8259260349587</v>
+        <v>273.3387160075451</v>
       </c>
       <c r="W26" t="n">
-        <v>298.3146362822368</v>
+        <v>294.8274262548233</v>
       </c>
       <c r="X26" t="n">
-        <v>318.8047682432928</v>
+        <v>315.3175582158793</v>
       </c>
       <c r="Y26" t="n">
-        <v>335.3116062208774</v>
+        <v>119.5390105500218</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>96.51873312946255</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>103.2315379928112</v>
       </c>
       <c r="F27" t="n">
-        <v>94.14287995820767</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>82.92997470062087</v>
       </c>
       <c r="H27" t="n">
-        <v>61.30911180132026</v>
+        <v>57.8219017739067</v>
       </c>
       <c r="I27" t="n">
-        <v>38.47030041623887</v>
+        <v>34.98309038882532</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.23150171746693</v>
+        <v>45.74429169005337</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>149.2383962596454</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>173.6114919941233</v>
+        <v>91.70923764812801</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>197.2814406983298</v>
       </c>
       <c r="X27" t="n">
-        <v>154.8466527683013</v>
+        <v>151.3594427408877</v>
       </c>
       <c r="Y27" t="n">
-        <v>154.7563633421282</v>
+        <v>151.2691533147146</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.48762417026066</v>
+        <v>125.4184377193475</v>
       </c>
       <c r="C28" t="n">
-        <v>116.3204886634516</v>
+        <v>112.8332786360381</v>
       </c>
       <c r="D28" t="n">
-        <v>97.68914058303615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>95.50763021139296</v>
+        <v>92.02042018397941</v>
       </c>
       <c r="F28" t="n">
-        <v>94.49471558775504</v>
+        <v>91.00750556034149</v>
       </c>
       <c r="G28" t="n">
-        <v>117.0646469232826</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.5241424920821</v>
+        <v>101.0369324646685</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>38.94563765408301</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>31.74850078910463</v>
       </c>
       <c r="R28" t="n">
-        <v>126.3670589419933</v>
+        <v>122.8798489145797</v>
       </c>
       <c r="S28" t="n">
-        <v>173.090265601796</v>
+        <v>169.6030555743825</v>
       </c>
       <c r="T28" t="n">
-        <v>177.0192569931053</v>
+        <v>173.5320469656917</v>
       </c>
       <c r="U28" t="n">
-        <v>235.3926969213147</v>
+        <v>231.9054868939011</v>
       </c>
       <c r="V28" t="n">
-        <v>201.2113108886518</v>
+        <v>84.63946596973194</v>
       </c>
       <c r="W28" t="n">
-        <v>235.5966659014148</v>
+        <v>232.1094558740012</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>171.2961129264474</v>
       </c>
       <c r="Y28" t="n">
-        <v>167.6583209169186</v>
+        <v>164.171110889505</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.20562224241081</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>251.0300579933799</v>
+        <v>10.01576911572084</v>
       </c>
       <c r="D29" t="n">
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>26.67324741697507</v>
+        <v>267.6875362946341</v>
       </c>
       <c r="F29" t="n">
         <v>51.61892308642473</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>107.7238185033152</v>
       </c>
       <c r="I29" t="n">
         <v>96.23305579277827</v>
@@ -24728,7 +24728,7 @@
         <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
@@ -24746,7 +24746,7 @@
         <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.98081600076688</v>
+        <v>271.9951048784259</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24838,10 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>32.19112886894153</v>
@@ -24853,10 +24853,10 @@
         <v>53.74814558083112</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>53.86288929808298</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V31" t="n">
-        <v>73.56253233146515</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C32" t="n">
-        <v>251.0300579933799</v>
+        <v>38.17059131533401</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F32" t="n">
         <v>292.6332119640838</v>
@@ -24932,10 +24932,10 @@
         <v>301.0599037375074</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>211.0036863756433</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
         <v>255.4882669008414</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.5103402562078</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>97.35481716573064</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>137.8948095462003</v>
@@ -25154,7 +25154,7 @@
         <v>29.48410854932507</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>74.37697119897985</v>
       </c>
       <c r="D35" t="n">
         <v>242.4475973841865</v>
@@ -25163,7 +25163,7 @@
         <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>78.34645146503047</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
         <v>303.0672932786386</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>96.78462534974888</v>
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>26.09606403470491</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>26.09606403470506</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
         <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.26339370217488</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>90.24636205281513</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.48410854932507</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>253.0374475345111</v>
+        <v>87.34206071703827</v>
       </c>
       <c r="D38" t="n">
         <v>242.4475973841865</v>
@@ -25406,10 +25406,10 @@
         <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>150.8280912743914</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25442,10 @@
         <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>215.5168142336385</v>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>26.09606403470491</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>26.09606403470507</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>55.01137686213137</v>
@@ -25555,19 +25555,19 @@
         <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.99172827094311</v>
+        <v>24.51396294518197</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.41151882742565</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>118.0813037293954</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C41" t="n">
-        <v>100.6203538369224</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5168656250386</v>
+        <v>172.7744188870886</v>
       </c>
       <c r="G41" t="n">
-        <v>321.9435573984622</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
-        <v>246.1156219990943</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447686</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
-        <v>115.6608894695725</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W41" t="n">
-        <v>255.8817886007402</v>
+        <v>95.55619553538051</v>
       </c>
       <c r="X41" t="n">
-        <v>125.4967309962195</v>
+        <v>116.0463274964365</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.5854007219685</v>
+        <v>132.5531654740211</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970316</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>69.78407773500676</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>33.146166176142</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526448</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195502</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153954</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>35.48458296994419</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.86799239076676</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058547</v>
+        <v>23.25055496135963</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>21.66649142240576</v>
+        <v>32.63425617445839</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7784632071552</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723643</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338717.1563824134</v>
+        <v>337782.2631030214</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>385160.7460605893</v>
+        <v>388769.3939372367</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488736.3853334731</v>
+        <v>487746.1457444959</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488736.3853334731</v>
+        <v>487746.1457444959</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507247.1129582189</v>
+        <v>514511.7940084225</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637698.9954991535</v>
+        <v>637698.9954991536</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633729.3669436327</v>
+        <v>633729.3669436326</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555640.0743514643</v>
+        <v>543520.0635733069</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132606</v>
+        <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132601</v>
       </c>
       <c r="D2" t="n">
         <v>757830.6133132604</v>
@@ -26323,34 +26323,34 @@
         <v>222702.9113261219</v>
       </c>
       <c r="F2" t="n">
-        <v>289369.8267470198</v>
+        <v>288321.6130701258</v>
       </c>
       <c r="G2" t="n">
-        <v>325910.7089463947</v>
+        <v>328533.9440449732</v>
       </c>
       <c r="H2" t="n">
-        <v>407249.7015175502</v>
+        <v>406139.4328874851</v>
       </c>
       <c r="I2" t="n">
-        <v>407249.7015175504</v>
+        <v>406139.4328874852</v>
       </c>
       <c r="J2" t="n">
-        <v>428004.1537028712</v>
+        <v>436149.4021530994</v>
       </c>
       <c r="K2" t="n">
-        <v>574268.3856427073</v>
+        <v>574268.3856427075</v>
       </c>
       <c r="L2" t="n">
-        <v>574268.3856427076</v>
+        <v>574268.3856427072</v>
       </c>
       <c r="M2" t="n">
-        <v>569817.5899895479</v>
+        <v>569817.5899895477</v>
       </c>
       <c r="N2" t="n">
-        <v>569817.5899895475</v>
+        <v>569817.5899895477</v>
       </c>
       <c r="O2" t="n">
-        <v>496423.8963278896</v>
+        <v>484257.6179761019</v>
       </c>
       <c r="P2" t="n">
         <v>198888.7002331758</v>
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>24034.14301937711</v>
+        <v>23653.87322910176</v>
       </c>
       <c r="G3" t="n">
-        <v>19109.46138964773</v>
+        <v>21029.4864245159</v>
       </c>
       <c r="H3" t="n">
-        <v>47822.40121226315</v>
+        <v>45932.3304873685</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15101.01129585892</v>
+        <v>18271.04910806511</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333825</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>97519.0401992191</v>
+        <v>95325.00563235155</v>
       </c>
       <c r="F4" t="n">
-        <v>138655.5594986107</v>
+        <v>135814.7294128984</v>
       </c>
       <c r="G4" t="n">
-        <v>154866.2282551625</v>
+        <v>153303.4873091816</v>
       </c>
       <c r="H4" t="n">
-        <v>190792.1967056992</v>
+        <v>186690.8829787192</v>
       </c>
       <c r="I4" t="n">
-        <v>190792.1967056992</v>
+        <v>186690.8829787192</v>
       </c>
       <c r="J4" t="n">
-        <v>203615.0901881931</v>
+        <v>205232.188519805</v>
       </c>
       <c r="K4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.773637341</v>
       </c>
       <c r="L4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="M4" t="n">
-        <v>291247.8217982544</v>
+        <v>287832.4744486646</v>
       </c>
       <c r="N4" t="n">
-        <v>291247.8217982544</v>
+        <v>287832.4744486646</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121383</v>
+        <v>241762.2790016676</v>
       </c>
       <c r="P4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>3365.566054137585</v>
+        <v>3325.604927889262</v>
       </c>
       <c r="G5" t="n">
-        <v>7604.598662600585</v>
+        <v>7990.554759549392</v>
       </c>
       <c r="H5" t="n">
-        <v>18187.99404923261</v>
+        <v>18148.03292298429</v>
       </c>
       <c r="I5" t="n">
-        <v>18187.99404923261</v>
+        <v>18148.03292298429</v>
       </c>
       <c r="J5" t="n">
-        <v>18934.9946052545</v>
+        <v>19228.16086504913</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26506,7 +26506,7 @@
         <v>24089.19032527969</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852724</v>
+        <v>17504.20445928715</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296485.8395802895</v>
+        <v>298679.874147157</v>
       </c>
       <c r="C6" t="n">
-        <v>296485.8395802893</v>
+        <v>298679.8741471567</v>
       </c>
       <c r="D6" t="n">
-        <v>296485.8395802893</v>
+        <v>298679.8741471569</v>
       </c>
       <c r="E6" t="n">
-        <v>116351.4036629993</v>
+        <v>118545.4382298669</v>
       </c>
       <c r="F6" t="n">
-        <v>123314.5581748944</v>
+        <v>125527.4055002364</v>
       </c>
       <c r="G6" t="n">
-        <v>144330.4206389839</v>
+        <v>146210.4155517263</v>
       </c>
       <c r="H6" t="n">
-        <v>150447.1095503553</v>
+        <v>155368.1864984131</v>
       </c>
       <c r="I6" t="n">
-        <v>198269.5107626186</v>
+        <v>201300.5169857817</v>
       </c>
       <c r="J6" t="n">
-        <v>190353.0576135647</v>
+        <v>193418.0036601802</v>
       </c>
       <c r="K6" t="n">
-        <v>181323.9710058253</v>
+        <v>187909.3561676214</v>
       </c>
       <c r="L6" t="n">
-        <v>256011.3150991637</v>
+        <v>259426.6624487533</v>
       </c>
       <c r="M6" t="n">
-        <v>254480.5778660138</v>
+        <v>257895.9252156035</v>
       </c>
       <c r="N6" t="n">
-        <v>254480.5778660134</v>
+        <v>257895.9252156035</v>
       </c>
       <c r="O6" t="n">
-        <v>226429.9559472241</v>
+        <v>224991.1345151471</v>
       </c>
       <c r="P6" t="n">
-        <v>116064.1115177234</v>
+        <v>118258.146084591</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G2" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H2" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J2" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,7 +26826,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>30.04267877422139</v>
+        <v>29.5673415363772</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.87626411982365</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>30.04267877422139</v>
+        <v>29.5673415363772</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.87626411982365</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="R16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="C19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="D19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="E19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="F19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="G19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="H19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="I19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="J19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="K19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="L19" t="n">
-        <v>26.65243747892257</v>
+        <v>4.493907822009682</v>
       </c>
       <c r="M19" t="n">
-        <v>30.13705409840614</v>
+        <v>37.14227158520103</v>
       </c>
       <c r="N19" t="n">
-        <v>25.58875868101813</v>
+        <v>32.59397616781303</v>
       </c>
       <c r="O19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="R19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="S19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="T19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="U19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="V19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="W19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="X19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.03337798876619</v>
+        <v>39.558040750922</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="K22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="L22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="M22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="N22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="O22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="P22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="C25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="D25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="E25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="F25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="G25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="H25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="I25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="J25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="K25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="L25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="M25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="N25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="O25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="P25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="S25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="T25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="U25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="V25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="W25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="X25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.04076752989737</v>
+        <v>41.56543029205318</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="C26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="D26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="E26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="F26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="G26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="H26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="I26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="S26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="T26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="U26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="V26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="W26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="X26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="Y26" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="C27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="D27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="E27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="F27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="G27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="H27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="I27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="S27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="T27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="U27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="V27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="W27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="X27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="Y27" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="C28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="D28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="E28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="F28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="G28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="H28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="I28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="J28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="K28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="L28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="M28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="N28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="O28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="P28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="R28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="S28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="T28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="U28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="V28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="W28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="X28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.92633243517621</v>
+        <v>54.41354246258976</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667282</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>73.62610214110055</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="M17" t="n">
-        <v>66.90392374468119</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N17" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P17" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="L18" t="n">
-        <v>66.90392374468119</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O18" t="n">
-        <v>69.72093106024673</v>
+        <v>73.62610214110056</v>
       </c>
       <c r="P18" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.72093106024673</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.76388616288334</v>
+        <v>17.28854892503915</v>
       </c>
       <c r="L19" t="n">
-        <v>54.24246273923871</v>
+        <v>32.08393308232582</v>
       </c>
       <c r="M19" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N19" t="n">
-        <v>69.72093106024673</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O19" t="n">
-        <v>64.61850590280586</v>
+        <v>64.14316866496168</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>36.83660001581549</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>19.77127570401451</v>
+        <v>19.29593846617033</v>
       </c>
       <c r="L22" t="n">
-        <v>69.6307927902135</v>
+        <v>69.15545555236932</v>
       </c>
       <c r="M22" t="n">
-        <v>81.62464449173795</v>
+        <v>81.14930725389377</v>
       </c>
       <c r="N22" t="n">
-        <v>86.17293990912596</v>
+        <v>85.69760267128177</v>
       </c>
       <c r="O22" t="n">
-        <v>66.62589544393704</v>
+        <v>66.15055820609285</v>
       </c>
       <c r="P22" t="n">
-        <v>39.31932679479085</v>
+        <v>38.84398955694667</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>19.77127570401451</v>
+        <v>19.29593846617033</v>
       </c>
       <c r="L25" t="n">
-        <v>69.6307927902135</v>
+        <v>69.15545555236932</v>
       </c>
       <c r="M25" t="n">
-        <v>81.62464449173795</v>
+        <v>81.14930725389377</v>
       </c>
       <c r="N25" t="n">
-        <v>86.17293990912596</v>
+        <v>85.69760267128177</v>
       </c>
       <c r="O25" t="n">
-        <v>66.62589544393704</v>
+        <v>66.15055820609285</v>
       </c>
       <c r="P25" t="n">
-        <v>39.31932679479085</v>
+        <v>38.84398955694667</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>28.65684060929335</v>
+        <v>32.14405063670691</v>
       </c>
       <c r="L28" t="n">
-        <v>78.51635769549235</v>
+        <v>82.0035677229059</v>
       </c>
       <c r="M28" t="n">
-        <v>90.51020939701679</v>
+        <v>93.99741942443035</v>
       </c>
       <c r="N28" t="n">
-        <v>95.0585048144048</v>
+        <v>98.54571484181835</v>
       </c>
       <c r="O28" t="n">
-        <v>75.51146034921588</v>
+        <v>78.99867037662943</v>
       </c>
       <c r="P28" t="n">
-        <v>48.20489170006969</v>
+        <v>51.69210172748325</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,10 +37625,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37783,19 +37783,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N41" t="n">
-        <v>171.2933578174123</v>
+        <v>127.3171020590146</v>
       </c>
       <c r="O41" t="n">
-        <v>60.31685254102968</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O42" t="n">
-        <v>37.74861602899426</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>31.02643763257488</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078997</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.949205376989</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307125</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156631</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.197136864978432</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1815585.770037734</v>
+        <v>1760965.757370707</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3003638.261695861</v>
+        <v>3003638.261695863</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10893593.65179474</v>
+        <v>10834384.46297051</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6347799.901385616</v>
+        <v>6355888.694516425</v>
       </c>
     </row>
     <row r="11">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="G17" t="n">
-        <v>111.1538965185986</v>
+        <v>84.39771755507512</v>
       </c>
       <c r="H17" t="n">
-        <v>97.90435205358153</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>84.39771755507512</v>
       </c>
       <c r="E18" t="n">
-        <v>97.90435205358153</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>97.90435205358153</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>42.9866400266493</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>41.41107752842584</v>
       </c>
       <c r="R19" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.476939766311729</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.99840967549056</v>
+        <v>93.04054213402782</v>
       </c>
       <c r="S20" t="n">
-        <v>2.905942378091035</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>90.61648975751689</v>
       </c>
       <c r="E21" t="n">
-        <v>102.7743721897418</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>80.69239898842262</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.32925834552126</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="X21" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>106.2838763824383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.62189912013642</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="T22" t="n">
-        <v>97.90435205358158</v>
+        <v>1.895582780203128</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>20.77234709993032</v>
       </c>
       <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.20612892445121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
@@ -2411,10 +2411,10 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>37.68077570467393</v>
       </c>
       <c r="V24" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
-        <v>109.1458365572608</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>12.09936332434977</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8067708201044</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>92.66194890861171</v>
       </c>
       <c r="W26" t="n">
-        <v>151.8129005537074</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,13 +2639,13 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>19.67951517068727</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>47.94688431179556</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>108.7383370771677</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>30.3063413122074</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>84.50665914106015</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>52.99502884595981</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.73364383471647</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
@@ -2882,10 +2882,10 @@
         <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>79.44899818737846</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>136.5447492295597</v>
+        <v>87.3794237533089</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
         <v>162.2983503095045</v>
@@ -2939,7 +2939,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.67317398702581</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>12.2009959991694</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
         <v>136.3130225376221</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9380154114882</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>39.63608644344725</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>132.0419098163977</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>72.55066483567261</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>47.28723141199562</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>100.0068945421785</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>125.7835479283317</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>87.43844432040264</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>151.5371490082765</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>105.6151510508343</v>
+        <v>67.44147693227606</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5248616246612</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.60048001875565</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.8587638843291</v>
+        <v>58.92255129506498</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7877552756384</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1611952038477</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>35.71750660701316</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>70.52429761988307</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3407,13 +3407,13 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W36" t="n">
-        <v>99.06508843485355</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X36" t="n">
         <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
         <v>67.83314520581563</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
-        <v>70.3871306873273</v>
+        <v>58.67690678877245</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -3502,68 +3502,68 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>131.3423818327971</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>82.27934083279976</v>
+      </c>
+      <c r="S38" t="n">
+        <v>141.4302924778954</v>
+      </c>
+      <c r="T38" t="n">
+        <v>155.5060724557814</v>
+      </c>
+      <c r="U38" t="n">
+        <v>183.7558757994866</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>68.21036613023641</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>84.23720837426251</v>
-      </c>
-      <c r="S38" t="n">
-        <v>143.3881600193582</v>
-      </c>
-      <c r="T38" t="n">
-        <v>157.4639399972442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.9012740829802</v>
+        <v>98.94340654151742</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.1187218799658</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>79.85528845628883</v>
       </c>
       <c r="E39" t="n">
-        <v>92.01317088851377</v>
+        <v>90.05530334705102</v>
       </c>
       <c r="F39" t="n">
-        <v>79.4373028264967</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71.71160759632346</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.80685574306516</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="S39" t="n">
-        <v>106.0512615369506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>134.5328191279344</v>
+        <v>72.35288752753098</v>
       </c>
       <c r="U39" t="n">
-        <v>160.3094725140876</v>
+        <v>158.3516049726249</v>
       </c>
       <c r="V39" t="n">
-        <v>167.1686775825381</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>23.20266612059437</v>
+        <v>138.1832080951276</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>138.0929186689544</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>78.84418553821925</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.38951483549965</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>186.5057337569408</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>220.8910887697038</v>
+        <v>218.9332212282411</v>
       </c>
       <c r="X40" t="n">
-        <v>87.25153945473436</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>150.9948762437449</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>114.3810335898605</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="T41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>127.8876680883669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.27017590540563</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>115.1094210945106</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>56.59423388415409</v>
+        <v>54.63636634269135</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.79755495760996</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.51662380030076</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>129.8603923590605</v>
+        <v>107.8000203197973</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
     </row>
     <row r="43">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.1907698295949</v>
+        <v>31.72635763713468</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>91.01639512440724</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>104.6280946136345</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>51.98550163261101</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>111.7679037431025</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>20.15312600105313</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>94.22790758880731</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="T44" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>48.90828950100097</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>89.84598767083364</v>
       </c>
       <c r="E45" t="n">
-        <v>80.62561109078777</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>87.47013449957876</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.74443926940552</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>54.63636634269135</v>
       </c>
       <c r="I45" t="n">
-        <v>33.75542249907271</v>
+        <v>31.79755495760996</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>38.64809026054045</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.85139703345317</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>35.76010222286766</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.56296535788927</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.6943134833644</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="W46" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.31587910314546</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>444.6155860743942</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="C17" t="n">
-        <v>444.6155860743942</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="D17" t="n">
-        <v>444.6155860743942</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="E17" t="n">
-        <v>332.3389229242946</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="F17" t="n">
-        <v>220.0622597741951</v>
+        <v>92.91577084752169</v>
       </c>
       <c r="G17" t="n">
-        <v>107.7855966240955</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="H17" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I17" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J17" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K17" t="n">
-        <v>111.9073176324102</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="L17" t="n">
-        <v>134.8708156755181</v>
+        <v>9.033915055051011</v>
       </c>
       <c r="M17" t="n">
-        <v>244.9131732289307</v>
+        <v>103.8951098546927</v>
       </c>
       <c r="N17" t="n">
-        <v>354.9555307823433</v>
+        <v>198.7563046543344</v>
       </c>
       <c r="O17" t="n">
-        <v>354.9555307823433</v>
+        <v>293.6174994539761</v>
       </c>
       <c r="P17" t="n">
-        <v>444.6155860743942</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q17" t="n">
-        <v>444.6155860743942</v>
+        <v>383.277554746027</v>
       </c>
       <c r="R17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="S17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="T17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="U17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="V17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="W17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6155860743942</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.6155860743942</v>
+        <v>189.7030321470235</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107.7855966240955</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="C18" t="n">
-        <v>107.7855966240955</v>
+        <v>189.7030321470235</v>
       </c>
       <c r="D18" t="n">
-        <v>107.7855966240955</v>
+        <v>104.4528123944223</v>
       </c>
       <c r="E18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="F18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="G18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="H18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J18" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K18" t="n">
-        <v>8.892311721487884</v>
+        <v>102.5267458945622</v>
       </c>
       <c r="L18" t="n">
-        <v>118.9346692749005</v>
+        <v>197.3879406942039</v>
       </c>
       <c r="M18" t="n">
-        <v>228.977026828313</v>
+        <v>197.3879406942039</v>
       </c>
       <c r="N18" t="n">
-        <v>339.0193843817256</v>
+        <v>292.2491354938456</v>
       </c>
       <c r="O18" t="n">
-        <v>339.0193843817256</v>
+        <v>383.277554746027</v>
       </c>
       <c r="P18" t="n">
-        <v>375.2210275610649</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q18" t="n">
-        <v>444.6155860743942</v>
+        <v>383.277554746027</v>
       </c>
       <c r="R18" t="n">
-        <v>444.6155860743942</v>
+        <v>383.277554746027</v>
       </c>
       <c r="S18" t="n">
-        <v>332.3389229242946</v>
+        <v>383.277554746027</v>
       </c>
       <c r="T18" t="n">
-        <v>220.0622597741951</v>
+        <v>383.277554746027</v>
       </c>
       <c r="U18" t="n">
-        <v>220.0622597741951</v>
+        <v>383.277554746027</v>
       </c>
       <c r="V18" t="n">
-        <v>220.0622597741951</v>
+        <v>383.277554746027</v>
       </c>
       <c r="W18" t="n">
-        <v>220.0622597741951</v>
+        <v>383.277554746027</v>
       </c>
       <c r="X18" t="n">
-        <v>220.0622597741951</v>
+        <v>286.4902934465252</v>
       </c>
       <c r="Y18" t="n">
-        <v>220.0622597741951</v>
+        <v>286.4902934465252</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220.0622597741951</v>
+        <v>147.8736609061893</v>
       </c>
       <c r="C19" t="n">
-        <v>121.1689748715875</v>
+        <v>147.8736609061893</v>
       </c>
       <c r="D19" t="n">
-        <v>121.1689748715875</v>
+        <v>51.08639960668751</v>
       </c>
       <c r="E19" t="n">
-        <v>121.1689748715875</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="F19" t="n">
-        <v>121.1689748715875</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="G19" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="H19" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="I19" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="J19" t="n">
-        <v>8.892311721487884</v>
+        <v>7.665551094920541</v>
       </c>
       <c r="K19" t="n">
-        <v>41.16751599686637</v>
+        <v>29.92221025333242</v>
       </c>
       <c r="L19" t="n">
-        <v>122.8036421875819</v>
+        <v>101.5397913270813</v>
       </c>
       <c r="M19" t="n">
-        <v>216.3136815628066</v>
+        <v>185.0312855853393</v>
       </c>
       <c r="N19" t="n">
-        <v>314.3265334012453</v>
+        <v>273.0255923068115</v>
       </c>
       <c r="O19" t="n">
-        <v>392.9878112191471</v>
+        <v>341.6683250077466</v>
       </c>
       <c r="P19" t="n">
-        <v>444.6155860743942</v>
+        <v>383.277554746027</v>
       </c>
       <c r="Q19" t="n">
-        <v>444.6155860743942</v>
+        <v>341.4481835051928</v>
       </c>
       <c r="R19" t="n">
-        <v>332.3389229242946</v>
+        <v>341.4481835051928</v>
       </c>
       <c r="S19" t="n">
-        <v>332.3389229242946</v>
+        <v>341.4481835051928</v>
       </c>
       <c r="T19" t="n">
-        <v>332.3389229242946</v>
+        <v>341.4481835051928</v>
       </c>
       <c r="U19" t="n">
-        <v>332.3389229242946</v>
+        <v>341.4481835051928</v>
       </c>
       <c r="V19" t="n">
-        <v>332.3389229242946</v>
+        <v>244.6609222056911</v>
       </c>
       <c r="W19" t="n">
-        <v>332.3389229242946</v>
+        <v>244.6609222056911</v>
       </c>
       <c r="X19" t="n">
-        <v>332.3389229242946</v>
+        <v>244.6609222056911</v>
       </c>
       <c r="Y19" t="n">
-        <v>332.3389229242946</v>
+        <v>147.8736609061893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="C20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="D20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="E20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="F20" t="n">
-        <v>8.892311721487884</v>
+        <v>247.2289159916071</v>
       </c>
       <c r="G20" t="n">
-        <v>8.892311721487884</v>
+        <v>131.9555168086563</v>
       </c>
       <c r="H20" t="n">
-        <v>8.892311721487884</v>
+        <v>16.68211762570559</v>
       </c>
       <c r="I20" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J20" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K20" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="L20" t="n">
-        <v>118.9346692749005</v>
+        <v>27.88422985480392</v>
       </c>
       <c r="M20" t="n">
-        <v>228.977026828313</v>
+        <v>140.8636883940139</v>
       </c>
       <c r="N20" t="n">
-        <v>339.0193843817256</v>
+        <v>253.8431469332239</v>
       </c>
       <c r="O20" t="n">
-        <v>354.9555307823433</v>
+        <v>366.822605472434</v>
       </c>
       <c r="P20" t="n">
-        <v>444.6155860743942</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="Q20" t="n">
-        <v>444.6155860743942</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R20" t="n">
-        <v>348.6575965031917</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="S20" t="n">
-        <v>345.7223011717866</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="T20" t="n">
-        <v>233.445638021687</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="U20" t="n">
-        <v>121.1689748715875</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="V20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="W20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="X20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.892311721487884</v>
+        <v>362.5023151745579</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>112.7048088828433</v>
+        <v>182.1689347768448</v>
       </c>
       <c r="C21" t="n">
-        <v>112.7048088828433</v>
+        <v>182.1689347768448</v>
       </c>
       <c r="D21" t="n">
-        <v>112.7048088828433</v>
+        <v>90.63712694096911</v>
       </c>
       <c r="E21" t="n">
-        <v>8.892311721487884</v>
+        <v>90.63712694096911</v>
       </c>
       <c r="F21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="G21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="H21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="I21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="L21" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="M21" t="n">
-        <v>118.9346692749005</v>
+        <v>122.1091117544997</v>
       </c>
       <c r="N21" t="n">
-        <v>228.977026828313</v>
+        <v>161.1291851727356</v>
       </c>
       <c r="O21" t="n">
-        <v>339.0193843817256</v>
+        <v>274.1086437119457</v>
       </c>
       <c r="P21" t="n">
-        <v>375.2210275610649</v>
+        <v>387.0881022511556</v>
       </c>
       <c r="Q21" t="n">
-        <v>444.6155860743942</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R21" t="n">
-        <v>444.6155860743942</v>
+        <v>412.7157331427463</v>
       </c>
       <c r="S21" t="n">
-        <v>444.6155860743942</v>
+        <v>297.4423339597955</v>
       </c>
       <c r="T21" t="n">
-        <v>444.6155860743942</v>
+        <v>297.4423339597955</v>
       </c>
       <c r="U21" t="n">
-        <v>444.6155860743942</v>
+        <v>297.4423339597955</v>
       </c>
       <c r="V21" t="n">
-        <v>444.6155860743942</v>
+        <v>297.4423339597955</v>
       </c>
       <c r="W21" t="n">
-        <v>332.3389229242946</v>
+        <v>182.1689347768448</v>
       </c>
       <c r="X21" t="n">
-        <v>220.0622597741951</v>
+        <v>182.1689347768448</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.7048088828433</v>
+        <v>182.1689347768448</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="C22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="D22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="E22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="F22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="G22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="H22" t="n">
-        <v>8.892311721487884</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="I22" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="J22" t="n">
-        <v>8.892311721487884</v>
+        <v>9.129653215289698</v>
       </c>
       <c r="K22" t="n">
-        <v>41.16751599686631</v>
+        <v>43.34314635671637</v>
       </c>
       <c r="L22" t="n">
-        <v>122.8036421875818</v>
+        <v>126.91756141348</v>
       </c>
       <c r="M22" t="n">
-        <v>216.3136815628066</v>
+        <v>222.3658896547529</v>
       </c>
       <c r="N22" t="n">
-        <v>314.3265334012453</v>
+        <v>322.3170303592398</v>
       </c>
       <c r="O22" t="n">
-        <v>392.9878112191471</v>
+        <v>402.9165970431897</v>
       </c>
       <c r="P22" t="n">
-        <v>444.6155860743942</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="Q22" t="n">
-        <v>444.6155860743942</v>
+        <v>456.4826607644849</v>
       </c>
       <c r="R22" t="n">
-        <v>444.6155860743942</v>
+        <v>341.2092615815342</v>
       </c>
       <c r="S22" t="n">
-        <v>444.6155860743942</v>
+        <v>225.9358623985834</v>
       </c>
       <c r="T22" t="n">
-        <v>345.7223011717866</v>
+        <v>224.0211323175702</v>
       </c>
       <c r="U22" t="n">
-        <v>345.7223011717866</v>
+        <v>224.0211323175702</v>
       </c>
       <c r="V22" t="n">
-        <v>233.445638021687</v>
+        <v>224.0211323175702</v>
       </c>
       <c r="W22" t="n">
-        <v>233.445638021687</v>
+        <v>224.0211323175702</v>
       </c>
       <c r="X22" t="n">
-        <v>233.445638021687</v>
+        <v>108.7477331346194</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.1689748715875</v>
+        <v>108.7477331346194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.9297525566451</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="C23" t="n">
-        <v>871.9297525566451</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="D23" t="n">
-        <v>871.9297525566451</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="E23" t="n">
-        <v>871.9297525566451</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="F23" t="n">
-        <v>628.4809759125451</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="G23" t="n">
-        <v>385.032199268445</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>767.9241233869484</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.1608651862213</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>283.7120885421212</v>
       </c>
       <c r="Y23" t="n">
-        <v>871.9297525566451</v>
+        <v>283.7120885421212</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>287.2420784597875</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="C24" t="n">
-        <v>203.088678321504</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="D24" t="n">
-        <v>144.4538978030962</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E24" t="n">
-        <v>75.51607194048424</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>758.1825743014874</v>
       </c>
       <c r="U24" t="n">
-        <v>620.25858518072</v>
+        <v>720.1211847008067</v>
       </c>
       <c r="V24" t="n">
-        <v>475.4061060918208</v>
+        <v>575.2687056119074</v>
       </c>
       <c r="W24" t="n">
-        <v>365.157786337012</v>
+        <v>411.3309780265492</v>
       </c>
       <c r="X24" t="n">
-        <v>365.157786337012</v>
+        <v>411.3309780265492</v>
       </c>
       <c r="Y24" t="n">
-        <v>365.157786337012</v>
+        <v>293.8703084044388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.89460754976233</v>
+        <v>147.6182331468339</v>
       </c>
       <c r="C25" t="n">
-        <v>76.89460754976233</v>
+        <v>147.6182331468339</v>
       </c>
       <c r="D25" t="n">
-        <v>76.89460754976233</v>
+        <v>147.6182331468339</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>23.28371610542252</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R25" t="n">
-        <v>663.2906532062331</v>
+        <v>651.0690740907282</v>
       </c>
       <c r="S25" t="n">
-        <v>663.2906532062331</v>
+        <v>651.0690740907282</v>
       </c>
       <c r="T25" t="n">
-        <v>523.3422122194993</v>
+        <v>511.1206331039945</v>
       </c>
       <c r="U25" t="n">
-        <v>523.3422122194993</v>
+        <v>511.1206331039945</v>
       </c>
       <c r="V25" t="n">
-        <v>358.9573531564559</v>
+        <v>346.7357740409511</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2434432371585</v>
+        <v>147.6182331468339</v>
       </c>
       <c r="X25" t="n">
-        <v>168.2434432371585</v>
+        <v>147.6182331468339</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.2434432371585</v>
+        <v>147.6182331468339</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6250,25 +6250,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>902.973837238177</v>
+        <v>843.2254012330299</v>
       </c>
       <c r="T26" t="n">
-        <v>902.973837238177</v>
+        <v>843.2254012330299</v>
       </c>
       <c r="U26" t="n">
-        <v>902.973837238177</v>
+        <v>843.2254012330299</v>
       </c>
       <c r="V26" t="n">
-        <v>902.973837238177</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>227.9789665055181</v>
+        <v>279.438345904057</v>
       </c>
       <c r="C27" t="n">
-        <v>143.8255663672346</v>
+        <v>195.2849457657734</v>
       </c>
       <c r="D27" t="n">
-        <v>123.9472682150252</v>
+        <v>136.6501652473657</v>
       </c>
       <c r="E27" t="n">
-        <v>123.9472682150252</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="F27" t="n">
         <v>67.7123393847537</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T27" t="n">
-        <v>870.0695397998778</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U27" t="n">
-        <v>732.1455506791104</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V27" t="n">
-        <v>587.2930715902112</v>
+        <v>521.2917813666396</v>
       </c>
       <c r="W27" t="n">
-        <v>423.355344004853</v>
+        <v>357.3540537812815</v>
       </c>
       <c r="X27" t="n">
-        <v>423.355344004853</v>
+        <v>357.3540537812815</v>
       </c>
       <c r="Y27" t="n">
-        <v>305.8946743827426</v>
+        <v>357.3540537812815</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>663.2906532062331</v>
+        <v>632.6781872343064</v>
       </c>
       <c r="S28" t="n">
-        <v>663.2906532062331</v>
+        <v>496.6984244206122</v>
       </c>
       <c r="T28" t="n">
-        <v>663.2906532062331</v>
+        <v>496.6984244206122</v>
       </c>
       <c r="U28" t="n">
-        <v>577.9303914475864</v>
+        <v>297.7869127993235</v>
       </c>
       <c r="V28" t="n">
-        <v>577.9303914475864</v>
+        <v>297.7869127993235</v>
       </c>
       <c r="W28" t="n">
-        <v>378.8128505534693</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="X28" t="n">
-        <v>241.1229287982955</v>
+        <v>98.66937190520635</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.6299787976089</v>
+        <v>98.66937190520635</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>316.260251921949</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>385.032199268445</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>141.5834226243449</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="U29" t="n">
-        <v>800.4722867667762</v>
+        <v>902.973837238177</v>
       </c>
       <c r="V29" t="n">
-        <v>559.709028566049</v>
+        <v>902.973837238177</v>
       </c>
       <c r="W29" t="n">
-        <v>559.709028566049</v>
+        <v>659.5250605940769</v>
       </c>
       <c r="X29" t="n">
-        <v>559.709028566049</v>
+        <v>628.4809759125451</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.709028566049</v>
+        <v>628.4809759125451</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>274.5893810456221</v>
+        <v>254.0766560790931</v>
       </c>
       <c r="C30" t="n">
-        <v>274.5893810456221</v>
+        <v>169.9232559408096</v>
       </c>
       <c r="D30" t="n">
-        <v>215.9546005272144</v>
+        <v>111.2884754224019</v>
       </c>
       <c r="E30" t="n">
-        <v>147.0167746646024</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="F30" t="n">
-        <v>90.78184583433085</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G30" t="n">
         <v>42.35064955978989</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>883.8056421900519</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>771.9186766916615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>633.9946875708941</v>
+        <v>875.7951113153747</v>
       </c>
       <c r="V30" t="n">
-        <v>633.9946875708941</v>
+        <v>730.9426322264756</v>
       </c>
       <c r="W30" t="n">
-        <v>470.056959985536</v>
+        <v>567.0049046411174</v>
       </c>
       <c r="X30" t="n">
-        <v>352.5050889228467</v>
+        <v>449.4530335784281</v>
       </c>
       <c r="Y30" t="n">
-        <v>352.5050889228467</v>
+        <v>331.9923639563177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.09815337970493</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>79.09815337970493</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>603.014719886005</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S31" t="n">
-        <v>603.014719886005</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T31" t="n">
-        <v>603.014719886005</v>
+        <v>650.9664148232337</v>
       </c>
       <c r="U31" t="n">
-        <v>603.014719886005</v>
+        <v>650.9664148232337</v>
       </c>
       <c r="V31" t="n">
-        <v>438.6298608229615</v>
+        <v>486.5815557601903</v>
       </c>
       <c r="W31" t="n">
-        <v>438.6298608229615</v>
+        <v>287.4640148660732</v>
       </c>
       <c r="X31" t="n">
-        <v>300.9399390677877</v>
+        <v>149.7740931108993</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.4469890671011</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>913.8437375424478</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>913.8437375424478</v>
+        <v>866.294907682607</v>
       </c>
       <c r="T32" t="n">
-        <v>789.66392399549</v>
+        <v>754.3147002809555</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>613.7993379866726</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>396.1055862355227</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>281.3237732129746</v>
+        <v>220.3257424864427</v>
       </c>
       <c r="C33" t="n">
-        <v>208.0402733789619</v>
+        <v>159.2418487977363</v>
       </c>
       <c r="D33" t="n">
-        <v>160.2753931648249</v>
+        <v>123.6765747289057</v>
       </c>
       <c r="E33" t="n">
-        <v>102.2074676064837</v>
+        <v>77.80825531587089</v>
       </c>
       <c r="F33" t="n">
-        <v>56.84243908048293</v>
+        <v>44.64283293517654</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>904.0089465537258</v>
       </c>
       <c r="T33" t="n">
-        <v>863.0400903165165</v>
+        <v>815.1914875049125</v>
       </c>
       <c r="U33" t="n">
-        <v>735.9860015000198</v>
+        <v>700.3370048337223</v>
       </c>
       <c r="V33" t="n">
-        <v>647.6643405703202</v>
+        <v>578.5540321944003</v>
       </c>
       <c r="W33" t="n">
-        <v>494.5965132892328</v>
+        <v>437.6858110586193</v>
       </c>
       <c r="X33" t="n">
-        <v>387.9145425308143</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y33" t="n">
-        <v>281.3237732129746</v>
+        <v>275.17194391409</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>56.02864693012777</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>56.02864693012777</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6858,52 +6858,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>26.01181060582338</v>
+        <v>37.96864458883817</v>
       </c>
       <c r="K34" t="n">
-        <v>103.1212695093161</v>
+        <v>127.0349374753456</v>
       </c>
       <c r="L34" t="n">
-        <v>229.5916503281457</v>
+        <v>265.4621522771901</v>
       </c>
       <c r="M34" t="n">
-        <v>367.9359443314846</v>
+        <v>415.7632802635438</v>
       </c>
       <c r="N34" t="n">
-        <v>510.7830507980376</v>
+        <v>570.5672207131116</v>
       </c>
       <c r="O34" t="n">
-        <v>634.2785832440536</v>
+        <v>706.0195871421424</v>
       </c>
       <c r="P34" t="n">
-        <v>730.7406127274148</v>
+        <v>814.4384506085185</v>
       </c>
       <c r="Q34" t="n">
-        <v>744.5964457193541</v>
+        <v>840.2511175834725</v>
       </c>
       <c r="R34" t="n">
-        <v>695.505051761015</v>
+        <v>840.2511175834725</v>
       </c>
       <c r="S34" t="n">
-        <v>570.3951892515917</v>
+        <v>780.7333890025988</v>
       </c>
       <c r="T34" t="n">
-        <v>441.3166485691287</v>
+        <v>663.8544544654421</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2750372521107</v>
+        <v>488.0124492937306</v>
       </c>
       <c r="V34" t="n">
-        <v>99.76007849333814</v>
+        <v>346.6970966802644</v>
       </c>
       <c r="W34" t="n">
-        <v>99.76007849333814</v>
+        <v>170.6490622357244</v>
       </c>
       <c r="X34" t="n">
-        <v>99.76007849333814</v>
+        <v>56.02864693012777</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.76007849333814</v>
+        <v>56.02864693012777</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>803.8818835691122</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>526.9871015825652</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>297.0937436861088</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>261.0154541840753</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>255.9620833880109</v>
+        <v>198.3974487167037</v>
       </c>
       <c r="C36" t="n">
-        <v>182.6785835539981</v>
+        <v>125.1139488826909</v>
       </c>
       <c r="D36" t="n">
-        <v>134.9137033398611</v>
+        <v>77.34906866855395</v>
       </c>
       <c r="E36" t="n">
-        <v>76.84577778151987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>892.8204912481281</v>
       </c>
       <c r="T36" t="n">
-        <v>790.7922752142996</v>
+        <v>892.8204912481281</v>
       </c>
       <c r="U36" t="n">
-        <v>663.7381863978029</v>
+        <v>765.7664024316314</v>
       </c>
       <c r="V36" t="n">
-        <v>529.7556076131746</v>
+        <v>631.783823647003</v>
       </c>
       <c r="W36" t="n">
-        <v>429.6898617193831</v>
+        <v>478.7159963659157</v>
       </c>
       <c r="X36" t="n">
-        <v>323.0078909609646</v>
+        <v>372.0340256074971</v>
       </c>
       <c r="Y36" t="n">
-        <v>323.0078909609646</v>
+        <v>265.4432562896575</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>470.7175089735107</v>
+        <v>296.9772172330246</v>
       </c>
       <c r="C37" t="n">
-        <v>402.9508554927181</v>
+        <v>229.2105637522319</v>
       </c>
       <c r="D37" t="n">
-        <v>354.0037455274967</v>
+        <v>180.2634537870105</v>
       </c>
       <c r="E37" t="n">
-        <v>307.2601813922178</v>
+        <v>133.5198896517317</v>
       </c>
       <c r="F37" t="n">
-        <v>307.2601813922178</v>
+        <v>87.79947160093559</v>
       </c>
       <c r="G37" t="n">
-        <v>238.741852901495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>238.741852901495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>238.741852901495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>245.4725203971056</v>
+        <v>26.01181060582338</v>
       </c>
       <c r="K37" t="n">
-        <v>322.5819793005983</v>
+        <v>103.1212695093161</v>
       </c>
       <c r="L37" t="n">
-        <v>449.0523601194279</v>
+        <v>229.5916503281457</v>
       </c>
       <c r="M37" t="n">
-        <v>587.3966541227668</v>
+        <v>367.9359443314846</v>
       </c>
       <c r="N37" t="n">
-        <v>730.2437605893198</v>
+        <v>510.7830507980376</v>
       </c>
       <c r="O37" t="n">
-        <v>853.7392930353358</v>
+        <v>634.2785832440536</v>
       </c>
       <c r="P37" t="n">
-        <v>950.201322518697</v>
+        <v>730.7406127274148</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="V37" t="n">
-        <v>810.5421967518637</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="W37" t="n">
-        <v>622.2945561620173</v>
+        <v>556.3488051295077</v>
       </c>
       <c r="X37" t="n">
-        <v>551.1964443566362</v>
+        <v>497.0792023125658</v>
       </c>
       <c r="Y37" t="n">
-        <v>551.1964443566362</v>
+        <v>377.45615261615</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="C38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="D38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="E38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="F38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="G38" t="n">
-        <v>88.18050283772425</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>878.9690662437044</v>
+        <v>880.9467102249799</v>
       </c>
       <c r="S38" t="n">
-        <v>734.1325409716255</v>
+        <v>738.0878289341765</v>
       </c>
       <c r="T38" t="n">
-        <v>575.0780561259244</v>
+        <v>581.0109880697509</v>
       </c>
       <c r="U38" t="n">
-        <v>575.0780561259244</v>
+        <v>395.3989923126937</v>
       </c>
       <c r="V38" t="n">
-        <v>575.0780561259244</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="W38" t="n">
-        <v>575.0780561259244</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="X38" t="n">
-        <v>575.0780561259244</v>
+        <v>151.9502156685937</v>
       </c>
       <c r="Y38" t="n">
-        <v>331.6292794818243</v>
+        <v>151.9502156685937</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>264.8994070610551</v>
+        <v>319.1156576823045</v>
       </c>
       <c r="C39" t="n">
-        <v>264.8994070610551</v>
+        <v>212.9351305308239</v>
       </c>
       <c r="D39" t="n">
-        <v>264.8994070610551</v>
+        <v>132.273222999219</v>
       </c>
       <c r="E39" t="n">
-        <v>171.9568102039705</v>
+        <v>41.30827012340986</v>
       </c>
       <c r="F39" t="n">
-        <v>91.71711037922633</v>
+        <v>41.30827012340986</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>41.30827012340986</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>41.30827012340986</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.1601281931684</v>
       </c>
       <c r="S39" t="n">
-        <v>856.934669109676</v>
+        <v>931.1601281931684</v>
       </c>
       <c r="T39" t="n">
-        <v>721.0429326168129</v>
+        <v>858.0764034178845</v>
       </c>
       <c r="U39" t="n">
-        <v>559.1141725015729</v>
+        <v>698.12528728392</v>
       </c>
       <c r="V39" t="n">
-        <v>390.256922418201</v>
+        <v>698.12528728392</v>
       </c>
       <c r="W39" t="n">
-        <v>390.256922418201</v>
+        <v>698.12528728392</v>
       </c>
       <c r="X39" t="n">
-        <v>366.8198859327522</v>
+        <v>558.5462892080336</v>
       </c>
       <c r="Y39" t="n">
-        <v>366.8198859327522</v>
+        <v>419.0584925727262</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>98.92173456295944</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>98.92173456295944</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>98.92173456295944</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7335,49 +7335,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>62.209936673807</v>
+        <v>64.14822553985512</v>
       </c>
       <c r="L40" t="n">
-        <v>154.4996521527383</v>
+        <v>158.3762298848345</v>
       </c>
       <c r="M40" t="n">
-        <v>258.6632808161788</v>
+        <v>264.4781474143231</v>
       </c>
       <c r="N40" t="n">
-        <v>367.3297219428334</v>
+        <v>375.0828774070259</v>
       </c>
       <c r="O40" t="n">
-        <v>456.6445890489509</v>
+        <v>466.3360333791916</v>
       </c>
       <c r="P40" t="n">
-        <v>518.9259531924138</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="Q40" t="n">
-        <v>518.9259531924138</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="R40" t="n">
-        <v>518.9259531924138</v>
+        <v>530.5556863887025</v>
       </c>
       <c r="S40" t="n">
-        <v>518.9259531924138</v>
+        <v>472.5864794841574</v>
       </c>
       <c r="T40" t="n">
-        <v>518.9259531924138</v>
+        <v>472.5864794841574</v>
       </c>
       <c r="U40" t="n">
-        <v>518.9259531924138</v>
+        <v>472.5864794841574</v>
       </c>
       <c r="V40" t="n">
-        <v>330.5363231348978</v>
+        <v>472.5864794841574</v>
       </c>
       <c r="W40" t="n">
-        <v>107.414011246308</v>
+        <v>251.4418115768432</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>251.4418115768432</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>98.92173456295944</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="C41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="D41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="E41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="F41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="G41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="H41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J41" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K41" t="n">
-        <v>113.4038372996472</v>
+        <v>114.6305979262145</v>
       </c>
       <c r="L41" t="n">
-        <v>241.9656257351171</v>
+        <v>114.6305979262145</v>
       </c>
       <c r="M41" t="n">
-        <v>370.527414170587</v>
+        <v>258.3735491154553</v>
       </c>
       <c r="N41" t="n">
-        <v>370.527414170587</v>
+        <v>402.1165003046961</v>
       </c>
       <c r="O41" t="n">
-        <v>429.781514144191</v>
+        <v>491.1195454725582</v>
       </c>
       <c r="P41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="Q41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="R41" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="S41" t="n">
-        <v>388.2694559422414</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="T41" t="n">
-        <v>257.097342448241</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="U41" t="n">
-        <v>125.9252289542405</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="V41" t="n">
-        <v>125.9252289542405</v>
+        <v>434.1180854200109</v>
       </c>
       <c r="W41" t="n">
-        <v>125.9252289542405</v>
+        <v>304.9386227044888</v>
       </c>
       <c r="X41" t="n">
-        <v>125.9252289542405</v>
+        <v>158.2771073598905</v>
       </c>
       <c r="Y41" t="n">
-        <v>125.9252289542405</v>
+        <v>11.61559201529218</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.5547242010017</v>
+        <v>215.1947257474255</v>
       </c>
       <c r="C42" t="n">
-        <v>67.5547242010017</v>
+        <v>98.92258322771775</v>
       </c>
       <c r="D42" t="n">
-        <v>67.5547242010017</v>
+        <v>98.92258322771775</v>
       </c>
       <c r="E42" t="n">
-        <v>67.5547242010017</v>
+        <v>98.92258322771775</v>
       </c>
       <c r="F42" t="n">
-        <v>67.5547242010017</v>
+        <v>98.92258322771775</v>
       </c>
       <c r="G42" t="n">
-        <v>67.5547242010017</v>
+        <v>98.92258322771775</v>
       </c>
       <c r="H42" t="n">
-        <v>10.38883138872484</v>
+        <v>43.73433439671639</v>
       </c>
       <c r="I42" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J42" t="n">
-        <v>10.38883138872484</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K42" t="n">
-        <v>64.36164561650304</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="L42" t="n">
-        <v>64.36164561650304</v>
+        <v>155.358543204533</v>
       </c>
       <c r="M42" t="n">
-        <v>192.9234340519729</v>
+        <v>299.1014943937737</v>
       </c>
       <c r="N42" t="n">
-        <v>192.9234340519729</v>
+        <v>442.8444455830145</v>
       </c>
       <c r="O42" t="n">
-        <v>321.4852224874428</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="P42" t="n">
-        <v>450.0470109229126</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.4415694362419</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="R42" t="n">
-        <v>474.4752827692715</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="S42" t="n">
-        <v>474.4752827692715</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="T42" t="n">
-        <v>474.4752827692715</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="U42" t="n">
-        <v>474.4752827692715</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="V42" t="n">
-        <v>343.303169275271</v>
+        <v>580.7796007646092</v>
       </c>
       <c r="W42" t="n">
-        <v>212.1310557812705</v>
+        <v>471.8906913506725</v>
       </c>
       <c r="X42" t="n">
-        <v>212.1310557812705</v>
+        <v>471.8906913506725</v>
       </c>
       <c r="Y42" t="n">
-        <v>80.95894228727002</v>
+        <v>325.2291760060742</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79.14151268843696</v>
+        <v>431.4985560632903</v>
       </c>
       <c r="C43" t="n">
-        <v>79.14151268843696</v>
+        <v>320.7432598968027</v>
       </c>
       <c r="D43" t="n">
-        <v>79.14151268843696</v>
+        <v>228.8075072458862</v>
       </c>
       <c r="E43" t="n">
-        <v>79.14151268843696</v>
+        <v>228.8075072458862</v>
       </c>
       <c r="F43" t="n">
-        <v>79.14151268843696</v>
+        <v>228.8075072458862</v>
       </c>
       <c r="G43" t="n">
-        <v>79.14151268843696</v>
+        <v>117.3005360694684</v>
       </c>
       <c r="H43" t="n">
-        <v>79.14151268843696</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="I43" t="n">
-        <v>79.14151268843696</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="J43" t="n">
-        <v>79.14151268843696</v>
+        <v>11.61559201529218</v>
       </c>
       <c r="K43" t="n">
-        <v>112.1795140296319</v>
+        <v>46.59188222253523</v>
       </c>
       <c r="L43" t="n">
-        <v>194.5784372861638</v>
+        <v>130.9290943451153</v>
       </c>
       <c r="M43" t="n">
-        <v>288.851273727205</v>
+        <v>227.1402196522045</v>
       </c>
       <c r="N43" t="n">
-        <v>387.6269226314602</v>
+        <v>327.8541574225079</v>
       </c>
       <c r="O43" t="n">
-        <v>467.0509975151784</v>
+        <v>409.2165211722743</v>
       </c>
       <c r="P43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="Q43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="R43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="S43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="T43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="U43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="V43" t="n">
-        <v>519.4415694362419</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="W43" t="n">
-        <v>466.9309617265338</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="X43" t="n">
-        <v>335.7588482325334</v>
+        <v>463.5453819593859</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.5867347385329</v>
+        <v>463.5453819593859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.74552431908154</v>
+        <v>266.5022448172217</v>
       </c>
       <c r="C44" t="n">
-        <v>30.74552431908154</v>
+        <v>138.3268673560724</v>
       </c>
       <c r="D44" t="n">
-        <v>30.74552431908154</v>
+        <v>138.3268673560724</v>
       </c>
       <c r="E44" t="n">
-        <v>30.74552431908154</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="F44" t="n">
-        <v>30.74552431908154</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="G44" t="n">
-        <v>30.74552431908154</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="H44" t="n">
-        <v>30.74552431908154</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="I44" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J44" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K44" t="n">
-        <v>113.4038372996472</v>
+        <v>113.1664958058454</v>
       </c>
       <c r="L44" t="n">
-        <v>241.9656257351171</v>
+        <v>238.7911832555179</v>
       </c>
       <c r="M44" t="n">
-        <v>370.527414170587</v>
+        <v>364.4158707051903</v>
       </c>
       <c r="N44" t="n">
-        <v>429.781514144191</v>
+        <v>490.0405581548628</v>
       </c>
       <c r="O44" t="n">
-        <v>429.781514144191</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="P44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="Q44" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="R44" t="n">
-        <v>424.261864801083</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="S44" t="n">
-        <v>293.0897513070825</v>
+        <v>379.399117285002</v>
       </c>
       <c r="T44" t="n">
-        <v>161.917637813082</v>
+        <v>379.399117285002</v>
       </c>
       <c r="U44" t="n">
-        <v>30.74552431908154</v>
+        <v>379.399117285002</v>
       </c>
       <c r="V44" t="n">
-        <v>30.74552431908154</v>
+        <v>379.399117285002</v>
       </c>
       <c r="W44" t="n">
-        <v>30.74552431908154</v>
+        <v>379.399117285002</v>
       </c>
       <c r="X44" t="n">
-        <v>30.74552431908154</v>
+        <v>379.399117285002</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.74552431908154</v>
+        <v>379.399117285002</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.9252289542405</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="C45" t="n">
-        <v>125.9252289542405</v>
+        <v>458.1721821188777</v>
       </c>
       <c r="D45" t="n">
-        <v>125.9252289542405</v>
+        <v>367.4186592190457</v>
       </c>
       <c r="E45" t="n">
-        <v>44.48521775142454</v>
+        <v>266.3620909750095</v>
       </c>
       <c r="F45" t="n">
-        <v>44.48521775142454</v>
+        <v>178.0084197633138</v>
       </c>
       <c r="G45" t="n">
-        <v>44.48521775142454</v>
+        <v>97.45848110734859</v>
       </c>
       <c r="H45" t="n">
-        <v>44.48521775142454</v>
+        <v>42.27023227634723</v>
       </c>
       <c r="I45" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="J45" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K45" t="n">
-        <v>135.7463914465623</v>
+        <v>135.5090499527604</v>
       </c>
       <c r="L45" t="n">
-        <v>264.3081798820322</v>
+        <v>256.3251198468064</v>
       </c>
       <c r="M45" t="n">
-        <v>392.8699683175021</v>
+        <v>381.9498072964789</v>
       </c>
       <c r="N45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="O45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="P45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="R45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="S45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="T45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="U45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="V45" t="n">
-        <v>519.4415694362419</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="W45" t="n">
-        <v>388.2694559422414</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="X45" t="n">
-        <v>257.097342448241</v>
+        <v>507.5744947461514</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.9252289542405</v>
+        <v>507.5744947461514</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="C46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="D46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="E46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="F46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="G46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="H46" t="n">
-        <v>10.38883138872484</v>
+        <v>145.1126002548431</v>
       </c>
       <c r="I46" t="n">
-        <v>10.38883138872484</v>
+        <v>46.27280527155703</v>
       </c>
       <c r="J46" t="n">
-        <v>10.38883138872484</v>
+        <v>10.15148989492303</v>
       </c>
       <c r="K46" t="n">
-        <v>43.42683272991976</v>
+        <v>45.12778010216607</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8257559864517</v>
+        <v>129.4649922247461</v>
       </c>
       <c r="M46" t="n">
-        <v>220.0985924274928</v>
+        <v>225.6761175318354</v>
       </c>
       <c r="N46" t="n">
-        <v>318.8742413317481</v>
+        <v>326.3900553021388</v>
       </c>
       <c r="O46" t="n">
-        <v>398.2983162154663</v>
+        <v>407.7524190519051</v>
       </c>
       <c r="P46" t="n">
-        <v>450.6888881365298</v>
+        <v>462.0812798390168</v>
       </c>
       <c r="Q46" t="n">
-        <v>450.6888881365298</v>
+        <v>433.2297996795327</v>
       </c>
       <c r="R46" t="n">
-        <v>450.6888881365298</v>
+        <v>312.3264527266393</v>
       </c>
       <c r="S46" t="n">
-        <v>450.6888881365298</v>
+        <v>312.3264527266393</v>
       </c>
       <c r="T46" t="n">
-        <v>450.6888881365298</v>
+        <v>312.3264527266393</v>
       </c>
       <c r="U46" t="n">
-        <v>319.5167746425293</v>
+        <v>312.3264527266393</v>
       </c>
       <c r="V46" t="n">
-        <v>188.3446611485288</v>
+        <v>184.15107526549</v>
       </c>
       <c r="W46" t="n">
-        <v>57.17254765452833</v>
+        <v>184.15107526549</v>
       </c>
       <c r="X46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.38883138872484</v>
+        <v>184.15107526549</v>
       </c>
     </row>
   </sheetData>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>258.9618675387831</v>
+        <v>237.1486007883009</v>
       </c>
       <c r="M17" t="n">
-        <v>341.5001297458713</v>
+        <v>326.1656219137795</v>
       </c>
       <c r="N17" t="n">
-        <v>340.5669601151895</v>
+        <v>325.2324522830977</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>325.9176001081935</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>233.6608276608657</v>
       </c>
       <c r="L18" t="n">
-        <v>249.7082762984728</v>
+        <v>234.3737684663809</v>
       </c>
       <c r="M18" t="n">
-        <v>253.2879304406169</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>242.4956086019318</v>
+        <v>227.1611007698401</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>234.5441426789711</v>
       </c>
       <c r="P18" t="n">
-        <v>170.5417237570973</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,16 +9406,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>346.9203114885858</v>
+        <v>254.7104317775774</v>
       </c>
       <c r="M20" t="n">
-        <v>341.5001297458713</v>
+        <v>344.466898418394</v>
       </c>
       <c r="N20" t="n">
-        <v>340.5669601151895</v>
+        <v>343.5337287877122</v>
       </c>
       <c r="O20" t="n">
-        <v>246.1953289980682</v>
+        <v>344.2188766128079</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9488,16 +9488,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>253.2879304406169</v>
+        <v>256.2546991131396</v>
       </c>
       <c r="N21" t="n">
-        <v>242.4956086019318</v>
+        <v>170.755927657309</v>
       </c>
       <c r="O21" t="n">
-        <v>253.750140963043</v>
+        <v>256.7169096355657</v>
       </c>
       <c r="P21" t="n">
-        <v>170.5417237570973</v>
+        <v>248.0950726054515</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9722,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>365.6268073290477</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>360.2066255863332</v>
+        <v>375.541133418425</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>374.6079637877432</v>
       </c>
       <c r="O41" t="n">
-        <v>289.9508376576504</v>
+        <v>320.0002772478101</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>192.3594331438319</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>283.7492799710265</v>
       </c>
       <c r="M42" t="n">
-        <v>271.9944262810788</v>
+        <v>287.3289341131706</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>276.5366122744856</v>
       </c>
       <c r="O42" t="n">
-        <v>272.4566368035049</v>
+        <v>281.9246840218128</v>
       </c>
       <c r="P42" t="n">
-        <v>263.8347997733907</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>365.6268073290477</v>
+        <v>362.6600386565251</v>
       </c>
       <c r="M44" t="n">
-        <v>360.2066255863332</v>
+        <v>357.2398569138106</v>
       </c>
       <c r="N44" t="n">
-        <v>289.2656898325546</v>
+        <v>356.3066872831288</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>247.8092584835944</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>268.4147721389347</v>
+        <v>260.5908140162843</v>
       </c>
       <c r="M45" t="n">
-        <v>271.9944262810788</v>
+        <v>269.0276576085562</v>
       </c>
       <c r="N45" t="n">
-        <v>259.1918142234746</v>
+        <v>258.2353357698711</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.8631333978215</v>
+        <v>337.982875940212</v>
       </c>
       <c r="C17" t="n">
-        <v>310.4021835053484</v>
+        <v>320.521926047739</v>
       </c>
       <c r="D17" t="n">
-        <v>299.8123333550238</v>
+        <v>309.9320758974144</v>
       </c>
       <c r="E17" t="n">
-        <v>215.9057652880041</v>
+        <v>337.1794043489932</v>
       </c>
       <c r="F17" t="n">
-        <v>240.8514409574537</v>
+        <v>266.3056913319361</v>
       </c>
       <c r="G17" t="n">
-        <v>249.2781327308774</v>
+        <v>286.1540542367914</v>
       </c>
       <c r="H17" t="n">
-        <v>186.6997417965265</v>
+        <v>294.7238363924986</v>
       </c>
       <c r="I17" t="n">
-        <v>155.6051813047468</v>
+        <v>165.7249238471374</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>94.99840967549058</v>
+        <v>9.298763531374391</v>
       </c>
       <c r="S17" t="n">
-        <v>154.1493613205863</v>
+        <v>164.2691038629768</v>
       </c>
       <c r="T17" t="n">
-        <v>168.2251412984722</v>
+        <v>178.3448838408628</v>
       </c>
       <c r="U17" t="n">
-        <v>196.4749446421774</v>
+        <v>206.594687184568</v>
       </c>
       <c r="V17" t="n">
-        <v>272.8815502044758</v>
+        <v>283.0012927468663</v>
       </c>
       <c r="W17" t="n">
-        <v>294.3702604517539</v>
+        <v>304.4900029941444</v>
       </c>
       <c r="X17" t="n">
-        <v>314.8603924128099</v>
+        <v>324.9801349552005</v>
       </c>
       <c r="Y17" t="n">
-        <v>331.3672303903945</v>
+        <v>245.6675842462783</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5085788656096781</v>
+        <v>25.96282924009205</v>
       </c>
       <c r="C18" t="n">
-        <v>117.8377907226566</v>
+        <v>127.9575332650472</v>
       </c>
       <c r="D18" t="n">
-        <v>92.57435729897965</v>
+        <v>18.2963822862951</v>
       </c>
       <c r="E18" t="n">
-        <v>4.870020136160306</v>
+        <v>17.07472604562565</v>
       </c>
       <c r="F18" t="n">
-        <v>90.19850412772477</v>
+        <v>100.3182466701153</v>
       </c>
       <c r="G18" t="n">
-        <v>82.47280889755153</v>
+        <v>92.5925514399421</v>
       </c>
       <c r="H18" t="n">
-        <v>57.36473597083736</v>
+        <v>67.48447851322791</v>
       </c>
       <c r="I18" t="n">
-        <v>34.52592458575597</v>
+        <v>44.64566712814653</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.28712588698403</v>
+        <v>55.40686842937459</v>
       </c>
       <c r="S18" t="n">
-        <v>5.65856631958016</v>
+        <v>126.9322053805693</v>
       </c>
       <c r="T18" t="n">
-        <v>34.14012391056396</v>
+        <v>155.4137629715531</v>
       </c>
       <c r="U18" t="n">
-        <v>171.0706738153157</v>
+        <v>181.1904163577063</v>
       </c>
       <c r="V18" t="n">
-        <v>177.9298788837662</v>
+        <v>188.0496214261567</v>
       </c>
       <c r="W18" t="n">
-        <v>196.8242748952605</v>
+        <v>206.9440174376511</v>
       </c>
       <c r="X18" t="n">
-        <v>150.9022769378184</v>
+        <v>65.20263079370218</v>
       </c>
       <c r="Y18" t="n">
-        <v>150.8119875116453</v>
+        <v>160.9317300540358</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.80737539767964</v>
+        <v>135.0810144586688</v>
       </c>
       <c r="C19" t="n">
-        <v>14.4717607793872</v>
+        <v>122.4958553753593</v>
       </c>
       <c r="D19" t="n">
-        <v>93.74476475255325</v>
+        <v>8.045118608437065</v>
       </c>
       <c r="E19" t="n">
-        <v>91.56325438091007</v>
+        <v>58.69635689665134</v>
       </c>
       <c r="F19" t="n">
-        <v>90.55033975727214</v>
+        <v>100.6700822996627</v>
       </c>
       <c r="G19" t="n">
-        <v>1.966374574201097</v>
+        <v>123.2400136351902</v>
       </c>
       <c r="H19" t="n">
-        <v>107.3564642417805</v>
+        <v>117.476206784171</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5797666615992</v>
+        <v>110.6995092039897</v>
       </c>
       <c r="J19" t="n">
-        <v>38.48847185101367</v>
+        <v>48.60821439340423</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.29133498603528</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.26878659291182</v>
+        <v>132.5424256539009</v>
       </c>
       <c r="S19" t="n">
-        <v>169.1458897713131</v>
+        <v>179.2656323137037</v>
       </c>
       <c r="T19" t="n">
-        <v>173.0748811626224</v>
+        <v>183.194623705013</v>
       </c>
       <c r="U19" t="n">
-        <v>231.4483210908318</v>
+        <v>241.5680636332224</v>
       </c>
       <c r="V19" t="n">
-        <v>197.2669350581689</v>
+        <v>111.5672889140527</v>
       </c>
       <c r="W19" t="n">
-        <v>231.6522900709319</v>
+        <v>241.7720326133225</v>
       </c>
       <c r="X19" t="n">
-        <v>170.838947123378</v>
+        <v>180.9586896657686</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.7139450864357</v>
+        <v>78.0142989423195</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.8631333978215</v>
+        <v>325.9052658563587</v>
       </c>
       <c r="C20" t="n">
-        <v>310.4021835053484</v>
+        <v>308.4443159638857</v>
       </c>
       <c r="D20" t="n">
-        <v>299.8123333550238</v>
+        <v>297.8544658135611</v>
       </c>
       <c r="E20" t="n">
-        <v>327.0596618066027</v>
+        <v>325.1017942651399</v>
       </c>
       <c r="F20" t="n">
-        <v>352.0053374760523</v>
+        <v>235.9268047434683</v>
       </c>
       <c r="G20" t="n">
-        <v>360.4320292494759</v>
+        <v>244.3534965168919</v>
       </c>
       <c r="H20" t="n">
-        <v>284.604093850108</v>
+        <v>168.525561117524</v>
       </c>
       <c r="I20" t="n">
-        <v>155.6051813047468</v>
+        <v>146.1703739969723</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.2434189424952</v>
+        <v>152.1914937791235</v>
       </c>
       <c r="T20" t="n">
-        <v>57.07124477987368</v>
+        <v>166.2672737570095</v>
       </c>
       <c r="U20" t="n">
-        <v>85.32104812357882</v>
+        <v>194.5170771007146</v>
       </c>
       <c r="V20" t="n">
-        <v>161.7276536858772</v>
+        <v>270.923682663013</v>
       </c>
       <c r="W20" t="n">
-        <v>294.3702604517539</v>
+        <v>292.4123929102911</v>
       </c>
       <c r="X20" t="n">
-        <v>314.8603924128099</v>
+        <v>312.9025248713472</v>
       </c>
       <c r="Y20" t="n">
-        <v>331.3672303903945</v>
+        <v>329.4093628489317</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.6624753842082</v>
+        <v>109.7046078427455</v>
       </c>
       <c r="C21" t="n">
-        <v>117.8377907226566</v>
+        <v>115.8799231811939</v>
       </c>
       <c r="D21" t="n">
-        <v>92.57435729897963</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>100.8165046482791</v>
       </c>
       <c r="F21" t="n">
-        <v>90.19850412772476</v>
+        <v>7.548237597839389</v>
       </c>
       <c r="G21" t="n">
-        <v>82.47280889755152</v>
+        <v>80.51494135608877</v>
       </c>
       <c r="H21" t="n">
-        <v>57.36473597083735</v>
+        <v>55.40686842937459</v>
       </c>
       <c r="I21" t="n">
-        <v>34.52592458575597</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.28712588698402</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>116.8124628381787</v>
+        <v>0.7339301055947232</v>
       </c>
       <c r="T21" t="n">
-        <v>145.2940204291625</v>
+        <v>143.3361528876997</v>
       </c>
       <c r="U21" t="n">
-        <v>171.0706738153157</v>
+        <v>169.112806273853</v>
       </c>
       <c r="V21" t="n">
-        <v>177.9298788837662</v>
+        <v>175.9720113423034</v>
       </c>
       <c r="W21" t="n">
-        <v>85.67037837666193</v>
+        <v>80.74574216267651</v>
       </c>
       <c r="X21" t="n">
-        <v>39.7483804192198</v>
+        <v>148.9444093963556</v>
       </c>
       <c r="Y21" t="n">
-        <v>44.52811112920696</v>
+        <v>148.8541199701825</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.80737539767962</v>
+        <v>123.0034043748154</v>
       </c>
       <c r="C22" t="n">
-        <v>112.3761128329687</v>
+        <v>110.418245291506</v>
       </c>
       <c r="D22" t="n">
-        <v>93.74476475255324</v>
+        <v>91.78689721109049</v>
       </c>
       <c r="E22" t="n">
-        <v>91.56325438091005</v>
+        <v>89.60538683944731</v>
       </c>
       <c r="F22" t="n">
-        <v>90.55033975727213</v>
+        <v>88.59247221580938</v>
       </c>
       <c r="G22" t="n">
-        <v>113.1202710927996</v>
+        <v>111.1624035513369</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3564642417805</v>
+        <v>105.3985967003177</v>
       </c>
       <c r="I22" t="n">
-        <v>100.5797666615992</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>38.48847185101366</v>
+        <v>36.5306043095509</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.29133498603527</v>
+        <v>29.33346744457251</v>
       </c>
       <c r="R22" t="n">
-        <v>122.4226831115104</v>
+        <v>6.344150378926386</v>
       </c>
       <c r="S22" t="n">
-        <v>169.1458897713131</v>
+        <v>53.06735703872916</v>
       </c>
       <c r="T22" t="n">
-        <v>75.1705291090408</v>
+        <v>169.2214308409565</v>
       </c>
       <c r="U22" t="n">
-        <v>231.4483210908318</v>
+        <v>229.490453549369</v>
       </c>
       <c r="V22" t="n">
-        <v>86.11303853957033</v>
+        <v>195.3090675167061</v>
       </c>
       <c r="W22" t="n">
-        <v>231.6522900709319</v>
+        <v>229.6944225294691</v>
       </c>
       <c r="X22" t="n">
-        <v>170.838947123378</v>
+        <v>54.76041439079405</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.56004856783711</v>
+        <v>161.7560775449729</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
-        <v>76.46512401263732</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G23" t="n">
-        <v>84.89181578606093</v>
+        <v>305.1337575637897</v>
       </c>
       <c r="H23" t="n">
         <v>9.063880386693029</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X23" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.6351768801873</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>98.86397352488579</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>53.15251375224379</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
         <v>77.85018824721276</v>
@@ -24384,10 +24384,10 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>75.79739520140464</v>
       </c>
       <c r="S25" t="n">
         <v>134.6199651855572</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.319594665071548</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>136.3130225376221</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
         <v>275.8762589195925</v>
@@ -24454,7 +24454,7 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>133.6992167127163</v>
@@ -24502,16 +24502,16 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>145.6936767101082</v>
       </c>
       <c r="W26" t="n">
-        <v>108.0314353122906</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X26" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24527,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>38.3689175425364</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>34.66561722084249</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24615,7 +24615,7 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>57.59041721354701</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>112.4157373640157</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>222.8812300736327</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
         <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
         <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>119.6234367348303</v>
@@ -24736,16 +24736,16 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X29" t="n">
-        <v>280.334467827054</v>
+        <v>249.6008239923375</v>
       </c>
       <c r="Y29" t="n">
         <v>296.8413058046385</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,10 +24770,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>2.83754006504428</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>49.16532547625083</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.2235845387286</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
         <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>126.347960577697</v>
       </c>
       <c r="U31" t="n">
         <v>196.9223965050758</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.56171863317837</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>265.1150576183644</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>254.5252074680398</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>281.7725359196186</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>306.7182115890683</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1449033624919</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>239.316967963124</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>110.3180554177628</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>111.5517323117461</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>8.068845687110809</v>
+        <v>104.9636146645188</v>
       </c>
       <c r="X32" t="n">
-        <v>28.55897764816683</v>
+        <v>16.48136756431353</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.0801045034104</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>45.20430867637948</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>26.09606403470495</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0889869459847</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>45.26321387028811</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.5350772057707</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>52.85860250541081</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>186.3651641839479</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4268191994517</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.56171863317837</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C35" t="n">
-        <v>52.82967197492229</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
         <v>254.5252074680398</v>
@@ -25171,7 +25171,7 @@
         <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
-        <v>239.316967963124</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>110.3180554177628</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.068845687110809</v>
+        <v>213.3656279577567</v>
       </c>
       <c r="X35" t="n">
         <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.06581562575138</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
         <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.001039331311617</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>52.47206057342291</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>105.5248616246612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.16469054906672</v>
+        <v>66.87491444762156</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76.08764321893432</v>
+        <v>315.1440645551306</v>
       </c>
       <c r="C38" t="n">
-        <v>299.6409822041204</v>
+        <v>297.6831146626577</v>
       </c>
       <c r="D38" t="n">
-        <v>289.0511320537958</v>
+        <v>287.093264512333</v>
       </c>
       <c r="E38" t="n">
-        <v>316.2984605053746</v>
+        <v>314.3405929639118</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2441361748242</v>
+        <v>339.2862686333615</v>
       </c>
       <c r="G38" t="n">
-        <v>349.6708279482478</v>
+        <v>347.7129604067851</v>
       </c>
       <c r="H38" t="n">
-        <v>205.6325264186435</v>
+        <v>271.8850250074172</v>
       </c>
       <c r="I38" t="n">
-        <v>144.8439800035187</v>
+        <v>11.54373062925887</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>185.7137433409493</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>262.1203489032478</v>
+        <v>19.14819248412596</v>
       </c>
       <c r="W38" t="n">
-        <v>283.6090591505258</v>
+        <v>281.6511916090631</v>
       </c>
       <c r="X38" t="n">
-        <v>304.0991911115818</v>
+        <v>302.1413235701191</v>
       </c>
       <c r="Y38" t="n">
-        <v>79.59174021150739</v>
+        <v>318.6481615477037</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>107.0765894214286</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>81.81315599775158</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>77.47943528503396</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.75374005486071</v>
       </c>
       <c r="H39" t="n">
-        <v>46.60353466960929</v>
+        <v>44.64566712814654</v>
       </c>
       <c r="I39" t="n">
-        <v>23.7647232845279</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.52592458575596</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>104.0933939954879</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>60.2220640589407</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>165.2108100410753</v>
       </c>
       <c r="W39" t="n">
-        <v>186.0630735940324</v>
+        <v>184.1052060525697</v>
       </c>
       <c r="X39" t="n">
-        <v>116.9384095159959</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>140.0507862104172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.2000706150501</v>
+        <v>112.2422030735874</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6149115317407</v>
+        <v>99.65704399027791</v>
       </c>
       <c r="D40" t="n">
-        <v>82.98356345132518</v>
+        <v>81.02569590986243</v>
       </c>
       <c r="E40" t="n">
-        <v>80.802053079682</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.78913845604407</v>
+        <v>77.83127091458132</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3590697915716</v>
+        <v>100.4012022501088</v>
       </c>
       <c r="H40" t="n">
-        <v>96.5952629405524</v>
+        <v>94.63739539908966</v>
       </c>
       <c r="I40" t="n">
-        <v>89.81856536037111</v>
+        <v>87.86069781890836</v>
       </c>
       <c r="J40" t="n">
-        <v>27.7272705497856</v>
+        <v>25.76940300832285</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.53013368480721</v>
+        <v>18.57226614334446</v>
       </c>
       <c r="R40" t="n">
-        <v>111.6614818102823</v>
+        <v>109.7036142688196</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3846884700851</v>
+        <v>99.03730609312268</v>
       </c>
       <c r="T40" t="n">
-        <v>162.3136798613943</v>
+        <v>160.3558123199316</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6871197896037</v>
+        <v>218.729252248141</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>184.5478662154781</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>72.82620636741562</v>
+        <v>158.1198782806872</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.9527437852076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>327.0926313111382</v>
+        <v>325.1347637696755</v>
       </c>
       <c r="C41" t="n">
-        <v>309.6316814186652</v>
+        <v>307.6738138772024</v>
       </c>
       <c r="D41" t="n">
-        <v>299.0418312683406</v>
+        <v>297.0839637268779</v>
       </c>
       <c r="E41" t="n">
-        <v>326.2891597199194</v>
+        <v>324.3312921784567</v>
       </c>
       <c r="F41" t="n">
-        <v>351.2348353893691</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G41" t="n">
-        <v>245.2804935729322</v>
+        <v>357.70365962133</v>
       </c>
       <c r="H41" t="n">
-        <v>283.8335917634248</v>
+        <v>281.8757242219621</v>
       </c>
       <c r="I41" t="n">
-        <v>154.8346792180635</v>
+        <v>152.8768116766008</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>94.22790758880731</v>
+        <v>92.27004004734457</v>
       </c>
       <c r="S41" t="n">
-        <v>23.51846687484249</v>
+        <v>6.226091501287925</v>
       </c>
       <c r="T41" t="n">
-        <v>37.5942468527285</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U41" t="n">
-        <v>65.84405019643364</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V41" t="n">
-        <v>272.1110481177925</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W41" t="n">
-        <v>293.5997583650707</v>
+        <v>163.754222735241</v>
       </c>
       <c r="X41" t="n">
-        <v>314.0898903261267</v>
+        <v>166.9371225935116</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.5967283037112</v>
+        <v>183.4439605710961</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.62179739211933</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>117.0672886359734</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>91.80385521229638</v>
+        <v>89.84598767083364</v>
       </c>
       <c r="E42" t="n">
-        <v>102.0038701030586</v>
+        <v>100.0460025615958</v>
       </c>
       <c r="F42" t="n">
-        <v>89.42800204104151</v>
+        <v>87.47013449957876</v>
       </c>
       <c r="G42" t="n">
-        <v>81.70230681086827</v>
+        <v>79.74443926940552</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.75542249907271</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.55875625883802</v>
       </c>
       <c r="S42" t="n">
-        <v>116.0419607514955</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T42" t="n">
-        <v>144.5235183424792</v>
+        <v>142.5656508010165</v>
       </c>
       <c r="U42" t="n">
-        <v>170.3001717286324</v>
+        <v>168.3423041871697</v>
       </c>
       <c r="V42" t="n">
-        <v>47.29898443802242</v>
+        <v>175.2015092556202</v>
       </c>
       <c r="W42" t="n">
-        <v>66.19338044951675</v>
+        <v>86.29588494731718</v>
       </c>
       <c r="X42" t="n">
-        <v>150.1317748511351</v>
+        <v>148.1739073096724</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.18109306590151</v>
+        <v>2.888717692346944</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>90.5065446509975</v>
       </c>
       <c r="C43" t="n">
-        <v>111.6056107462855</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>92.97426266586999</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>90.7927522942268</v>
+        <v>88.83488475276405</v>
       </c>
       <c r="F43" t="n">
-        <v>89.77983767058888</v>
+        <v>87.82197012912613</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3497690061164</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.5859621550972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>99.80926457491591</v>
+        <v>97.85139703345317</v>
       </c>
       <c r="J43" t="n">
-        <v>37.71796976433041</v>
+        <v>35.76010222286766</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.52083289935202</v>
+        <v>28.56296535788927</v>
       </c>
       <c r="R43" t="n">
-        <v>121.6521810248271</v>
+        <v>119.6943134833644</v>
       </c>
       <c r="S43" t="n">
-        <v>168.3753876846299</v>
+        <v>166.4175201431671</v>
       </c>
       <c r="T43" t="n">
-        <v>172.3043790759391</v>
+        <v>170.3465115344764</v>
       </c>
       <c r="U43" t="n">
-        <v>230.6778190041485</v>
+        <v>228.7199514626858</v>
       </c>
       <c r="V43" t="n">
-        <v>196.4964329714856</v>
+        <v>194.5385654300229</v>
       </c>
       <c r="W43" t="n">
-        <v>178.8962863516376</v>
+        <v>228.9239204427859</v>
       </c>
       <c r="X43" t="n">
-        <v>40.2080526776343</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.08305064069194</v>
+        <v>160.9855754582897</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>327.0926313111382</v>
+        <v>213.366860026573</v>
       </c>
       <c r="C44" t="n">
-        <v>309.6316814186652</v>
+        <v>180.7801901906645</v>
       </c>
       <c r="D44" t="n">
-        <v>299.0418312683406</v>
+        <v>297.0839637268779</v>
       </c>
       <c r="E44" t="n">
-        <v>326.2891597199194</v>
+        <v>197.4376684919188</v>
       </c>
       <c r="F44" t="n">
-        <v>351.2348353893691</v>
+        <v>349.2769678479063</v>
       </c>
       <c r="G44" t="n">
-        <v>359.6615271627927</v>
+        <v>357.70365962133</v>
       </c>
       <c r="H44" t="n">
-        <v>283.8335917634248</v>
+        <v>281.8757242219621</v>
       </c>
       <c r="I44" t="n">
-        <v>134.6815532170104</v>
+        <v>152.8768116766008</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.27004004734457</v>
       </c>
       <c r="S44" t="n">
-        <v>23.51846687484249</v>
+        <v>24.52736800590237</v>
       </c>
       <c r="T44" t="n">
-        <v>37.5942468527285</v>
+        <v>165.4967716703262</v>
       </c>
       <c r="U44" t="n">
-        <v>65.84405019643364</v>
+        <v>193.7465750140314</v>
       </c>
       <c r="V44" t="n">
-        <v>272.1110481177925</v>
+        <v>270.1531805763298</v>
       </c>
       <c r="W44" t="n">
-        <v>293.5997583650707</v>
+        <v>291.6418908236079</v>
       </c>
       <c r="X44" t="n">
-        <v>314.0898903261267</v>
+        <v>312.1320227846639</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.5967283037112</v>
+        <v>328.6388607622484</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.891973297525</v>
+        <v>108.9341057560622</v>
       </c>
       <c r="C45" t="n">
-        <v>117.0672886359734</v>
+        <v>66.20113159350964</v>
       </c>
       <c r="D45" t="n">
-        <v>91.80385521229638</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>21.3782590122708</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>89.42800204104151</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>81.70230681086827</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>56.59423388415409</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.51662380030076</v>
+        <v>42.55875625883802</v>
       </c>
       <c r="S45" t="n">
-        <v>116.0419607514955</v>
+        <v>114.0840932100327</v>
       </c>
       <c r="T45" t="n">
-        <v>144.5235183424792</v>
+        <v>142.5656508010165</v>
       </c>
       <c r="U45" t="n">
-        <v>170.3001717286324</v>
+        <v>168.3423041871697</v>
       </c>
       <c r="V45" t="n">
-        <v>177.1593767970829</v>
+        <v>175.2015092556202</v>
       </c>
       <c r="W45" t="n">
-        <v>66.19338044951675</v>
+        <v>194.0959052671145</v>
       </c>
       <c r="X45" t="n">
-        <v>20.27138249207462</v>
+        <v>148.1739073096724</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.18109306590151</v>
+        <v>148.0836178834992</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.1907698295949</v>
+        <v>122.2329022881322</v>
       </c>
       <c r="C46" t="n">
-        <v>111.6056107462855</v>
+        <v>109.6477432048227</v>
       </c>
       <c r="D46" t="n">
-        <v>92.97426266586999</v>
+        <v>91.01639512440724</v>
       </c>
       <c r="E46" t="n">
-        <v>90.7927522942268</v>
+        <v>88.83488475276405</v>
       </c>
       <c r="F46" t="n">
-        <v>89.77983767058888</v>
+        <v>87.82197012912613</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3497690061164</v>
+        <v>110.3919014646536</v>
       </c>
       <c r="H46" t="n">
-        <v>106.5859621550972</v>
+        <v>65.98000435309402</v>
       </c>
       <c r="I46" t="n">
-        <v>99.80926457491591</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.71796976433041</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.52083289935202</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.6521810248271</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.3753876846299</v>
+        <v>166.4175201431671</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3043790759391</v>
+        <v>170.3465115344764</v>
       </c>
       <c r="U46" t="n">
-        <v>100.817426645088</v>
+        <v>228.7199514626858</v>
       </c>
       <c r="V46" t="n">
-        <v>66.63604061242515</v>
+        <v>67.64494174348503</v>
       </c>
       <c r="W46" t="n">
-        <v>101.0213956251881</v>
+        <v>228.9239204427859</v>
       </c>
       <c r="X46" t="n">
-        <v>123.7525659335493</v>
+        <v>168.110577495232</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.9434429997524</v>
+        <v>160.9855754582897</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441215.9748748335</v>
+        <v>411366.5973841022</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>441215.9748748335</v>
+        <v>446990.936745372</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>587388.5486067124</v>
+        <v>587388.5486067125</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>587388.5486067126</v>
+        <v>587388.5486067125</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609423.3235136165</v>
+        <v>633729.3669436327</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609423.3235136165</v>
+        <v>609423.3235136163</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>537882.2988751064</v>
+        <v>541960.9987857691</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453516.626947756</v>
+        <v>466362.89358848</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453516.626947756</v>
+        <v>455899.0648985427</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="E2" t="n">
-        <v>222702.9113261219</v>
+        <v>222702.9113261218</v>
       </c>
       <c r="F2" t="n">
-        <v>222702.9113261219</v>
+        <v>222702.9113261217</v>
       </c>
       <c r="G2" t="n">
-        <v>380345.0913929708</v>
+        <v>349992.1883012959</v>
       </c>
       <c r="H2" t="n">
-        <v>380345.0913929709</v>
+        <v>386217.4704088817</v>
       </c>
       <c r="I2" t="n">
-        <v>517859.7027633034</v>
+        <v>517859.7027633035</v>
       </c>
       <c r="J2" t="n">
-        <v>517859.7027633034</v>
+        <v>517859.7027633036</v>
       </c>
       <c r="K2" t="n">
         <v>517859.7027633034</v>
       </c>
       <c r="L2" t="n">
-        <v>542565.3594771053</v>
+        <v>569817.5899895479</v>
       </c>
       <c r="M2" t="n">
-        <v>542565.3594771051</v>
+        <v>542565.3594771057</v>
       </c>
       <c r="N2" t="n">
-        <v>462352.6954884726</v>
+        <v>466925.7832670942</v>
       </c>
       <c r="O2" t="n">
-        <v>390337.2687961564</v>
+        <v>401626.0779044899</v>
       </c>
       <c r="P2" t="n">
-        <v>390337.2687961565</v>
+        <v>393611.0653374894</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66369.62296819153</v>
+        <v>54070.8703551202</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14599.93717951618</v>
       </c>
       <c r="I3" t="n">
-        <v>62153.3450651185</v>
+        <v>59798.12493978238</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44512.96828187389</v>
+        <v>46079.2623150441</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>95325.00563235153</v>
       </c>
       <c r="G4" t="n">
-        <v>182273.4269627147</v>
+        <v>164880.49220809</v>
       </c>
       <c r="H4" t="n">
-        <v>182273.4269627147</v>
+        <v>185638.4396855399</v>
       </c>
       <c r="I4" t="n">
         <v>255716.9332949485</v>
@@ -26447,19 +26447,19 @@
         <v>255716.9332949485</v>
       </c>
       <c r="L4" t="n">
-        <v>270986.7915526711</v>
+        <v>287832.4744486646</v>
       </c>
       <c r="M4" t="n">
         <v>270986.7915526711</v>
       </c>
       <c r="N4" t="n">
-        <v>221421.5842373985</v>
+        <v>224247.0125815316</v>
       </c>
       <c r="O4" t="n">
-        <v>186787.6151151744</v>
+        <v>192402.0242645052</v>
       </c>
       <c r="P4" t="n">
-        <v>186787.6151151744</v>
+        <v>189073.4590806154</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>11371.08248151649</v>
+        <v>9587.987769529074</v>
       </c>
       <c r="H5" t="n">
-        <v>11371.08248151649</v>
+        <v>11716.0579831491</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26499,19 +26499,19 @@
         <v>22169.15429094728</v>
       </c>
       <c r="L5" t="n">
-        <v>23073.83772314023</v>
+        <v>24089.19032527969</v>
       </c>
       <c r="M5" t="n">
         <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>20171.27776914031</v>
+        <v>20335.87373548354</v>
       </c>
       <c r="O5" t="n">
-        <v>12573.21276854195</v>
+        <v>13670.14681107636</v>
       </c>
       <c r="P5" t="n">
-        <v>12573.21276854195</v>
+        <v>12557.4291995958</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298679.874147157</v>
+        <v>298635.7383684758</v>
       </c>
       <c r="C6" t="n">
-        <v>298679.874147157</v>
+        <v>298635.7383684757</v>
       </c>
       <c r="D6" t="n">
-        <v>298679.874147157</v>
+        <v>298635.7383684756</v>
       </c>
       <c r="E6" t="n">
-        <v>118545.4382298669</v>
+        <v>104038.3915866685</v>
       </c>
       <c r="F6" t="n">
-        <v>126537.9976015028</v>
+        <v>112030.9509583042</v>
       </c>
       <c r="G6" t="n">
-        <v>120330.9589805481</v>
+        <v>110386.042054417</v>
       </c>
       <c r="H6" t="n">
-        <v>186700.5819487397</v>
+        <v>164175.3013251203</v>
       </c>
       <c r="I6" t="n">
-        <v>177820.2701122891</v>
+        <v>173645.6541738102</v>
       </c>
       <c r="J6" t="n">
-        <v>231981.0558057718</v>
+        <v>225451.2197419568</v>
       </c>
       <c r="K6" t="n">
-        <v>239973.6151774076</v>
+        <v>233443.7791135925</v>
       </c>
       <c r="L6" t="n">
-        <v>203991.7619194201</v>
+        <v>206691.0940590753</v>
       </c>
       <c r="M6" t="n">
-        <v>248504.7302012937</v>
+        <v>242642.6145892036</v>
       </c>
       <c r="N6" t="n">
-        <v>220759.8334819338</v>
+        <v>214436.4684674476</v>
       </c>
       <c r="O6" t="n">
-        <v>190976.4409124401</v>
+        <v>185882.6214445847</v>
       </c>
       <c r="P6" t="n">
-        <v>190976.4409124402</v>
+        <v>182092.2697116843</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H2" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="O2" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P2" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="H4" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="P4" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.8800090511143</v>
+        <v>34.76026650872374</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I2" t="n">
-        <v>34.52592458575597</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.64121035234236</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.30127650461445</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865378</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.8800090511143</v>
+        <v>34.76026650872374</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="N2" t="n">
-        <v>34.52592458575597</v>
+        <v>32.56805704429321</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.30127650461445</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y17" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y18" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="C19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="D19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="E19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="F19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="G19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="H19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="I19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="J19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="K19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="L19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="M19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="N19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="O19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="P19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="R19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="S19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="T19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="U19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="V19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="W19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="X19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.8707082656591</v>
+        <v>44.75096572326854</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y21" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="C22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="D22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="E22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="F22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="G22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="H22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="I22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="J22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="K22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="L22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="M22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="N22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="O22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="P22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="R22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="S22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="T22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="U22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="V22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="W22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="X22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.87070826565911</v>
+        <v>56.82857580712187</v>
       </c>
     </row>
     <row r="23">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y38" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="C40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="D40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="E40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="F40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="G40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="H40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="I40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="J40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="K40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="L40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="M40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="N40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="O40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="P40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="R40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="S40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="T40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="U40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="V40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="W40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="X40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.63190956688717</v>
+        <v>67.58977710834992</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="K43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="L43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="N43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="O43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="R43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y45" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="C46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="D46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="E46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="F46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="G46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="H46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="I46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="J46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="K46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="L46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="M46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="N46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="O46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="P46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="R46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="S46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="T46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="U46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="V46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="W46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="X46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.64121035234237</v>
+        <v>57.59907789380512</v>
       </c>
     </row>
   </sheetData>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.19545256879586</v>
+        <v>1.382185818313607</v>
       </c>
       <c r="M17" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="N17" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="L18" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="M18" t="n">
-        <v>111.1538965185986</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>111.1538965185986</v>
+        <v>95.81938868650676</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>91.9478982345267</v>
       </c>
       <c r="P18" t="n">
-        <v>36.567316342767</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>32.60121643977625</v>
+        <v>22.48147389738569</v>
       </c>
       <c r="L19" t="n">
-        <v>82.46073352597524</v>
+        <v>72.34099098358467</v>
       </c>
       <c r="M19" t="n">
-        <v>94.45458522749969</v>
+        <v>84.33484268510912</v>
       </c>
       <c r="N19" t="n">
-        <v>99.0028806448877</v>
+        <v>88.88313810249713</v>
       </c>
       <c r="O19" t="n">
-        <v>79.45583617969878</v>
+        <v>69.33609363730821</v>
       </c>
       <c r="P19" t="n">
-        <v>52.14926753055259</v>
+        <v>42.02952498816203</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>111.1538965185986</v>
+        <v>18.94401680759012</v>
       </c>
       <c r="M20" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="N20" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="O20" t="n">
-        <v>16.09711757638146</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="N21" t="n">
-        <v>111.1538965185986</v>
+        <v>39.4142155739757</v>
       </c>
       <c r="O21" t="n">
-        <v>111.1538965185986</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="P21" t="n">
-        <v>36.567316342767</v>
+        <v>114.1206651911212</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.60121643977626</v>
+        <v>34.55908398123902</v>
       </c>
       <c r="L22" t="n">
-        <v>82.46073352597526</v>
+        <v>84.418601067438</v>
       </c>
       <c r="M22" t="n">
-        <v>94.45458522749971</v>
+        <v>96.41245276896245</v>
       </c>
       <c r="N22" t="n">
-        <v>99.00288064488771</v>
+        <v>100.9607481863505</v>
       </c>
       <c r="O22" t="n">
-        <v>79.45583617969879</v>
+        <v>81.41370372116154</v>
       </c>
       <c r="P22" t="n">
-        <v>52.1492675305526</v>
+        <v>54.10713507201536</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36442,10 +36442,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.798654035970358</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="K34" t="n">
-        <v>77.88834232676028</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="L34" t="n">
-        <v>127.7478594129593</v>
+        <v>139.8254694968126</v>
       </c>
       <c r="M34" t="n">
-        <v>139.7417111144837</v>
+        <v>151.819321198337</v>
       </c>
       <c r="N34" t="n">
-        <v>144.2900065318717</v>
+        <v>156.3676166157251</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7429620666828</v>
+        <v>136.8205721505361</v>
       </c>
       <c r="P34" t="n">
-        <v>97.43639341753662</v>
+        <v>109.51400350139</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.99579090094875</v>
+        <v>26.07340098480208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>43.36241774100432</v>
+        <v>45.32028528246707</v>
       </c>
       <c r="L40" t="n">
-        <v>93.22193482720331</v>
+        <v>95.17980236866606</v>
       </c>
       <c r="M40" t="n">
-        <v>105.2157865287278</v>
+        <v>107.1736540701905</v>
       </c>
       <c r="N40" t="n">
-        <v>109.7640819461158</v>
+        <v>111.7219494875785</v>
       </c>
       <c r="O40" t="n">
-        <v>90.21703748092685</v>
+        <v>92.17490502238959</v>
       </c>
       <c r="P40" t="n">
-        <v>62.91046883178066</v>
+        <v>64.86833637324341</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O41" t="n">
-        <v>59.85262623596365</v>
+        <v>89.90206582612336</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>54.51799416947293</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="M42" t="n">
-        <v>129.8603923590605</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>145.1949001911523</v>
       </c>
       <c r="O42" t="n">
-        <v>129.8603923590605</v>
+        <v>139.3284395773684</v>
       </c>
       <c r="P42" t="n">
-        <v>129.8603923590605</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>33.37171852645952</v>
+        <v>35.32958606792226</v>
       </c>
       <c r="L43" t="n">
-        <v>83.23123561265851</v>
+        <v>85.18910315412126</v>
       </c>
       <c r="M43" t="n">
-        <v>95.22508731418296</v>
+        <v>97.1829548556457</v>
       </c>
       <c r="N43" t="n">
-        <v>99.77338273157096</v>
+        <v>101.7312502730337</v>
       </c>
       <c r="O43" t="n">
-        <v>80.22633826638204</v>
+        <v>82.18420580784479</v>
       </c>
       <c r="P43" t="n">
-        <v>52.91976961723586</v>
+        <v>54.8776371586986</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="M44" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="N44" t="n">
-        <v>59.85262623596365</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>17.71104706190766</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>129.8603923590605</v>
+        <v>122.0364342364101</v>
       </c>
       <c r="M45" t="n">
-        <v>129.8603923590605</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="N45" t="n">
-        <v>127.8501021401413</v>
+        <v>126.8936236865379</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.37171852645952</v>
+        <v>35.32958606792226</v>
       </c>
       <c r="L46" t="n">
-        <v>83.23123561265851</v>
+        <v>85.18910315412126</v>
       </c>
       <c r="M46" t="n">
-        <v>95.22508731418296</v>
+        <v>97.1829548556457</v>
       </c>
       <c r="N46" t="n">
-        <v>99.77338273157096</v>
+        <v>101.7312502730337</v>
       </c>
       <c r="O46" t="n">
-        <v>80.22633826638204</v>
+        <v>82.18420580784479</v>
       </c>
       <c r="P46" t="n">
-        <v>52.91976961723586</v>
+        <v>54.8776371586986</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
